--- a/source_data/protocols/NCT04573309/NCT04573309.xlsx
+++ b/source_data/protocols/NCT04573309/NCT04573309.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/protocols/NCT04573309/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B046A114-6C4B-4447-AE8F-E0AC644F9E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EA70E6-9AD5-414A-8212-FCA261839D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37560" yWindow="600" windowWidth="36700" windowHeight="19700" firstSheet="9" activeTab="16" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="-37560" yWindow="600" windowWidth="36700" windowHeight="19700" firstSheet="16" activeTab="18" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -11179,8 +11179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807AE9D8-8C9D-644F-8552-6E66F0115CF1}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11194,9 +11194,9 @@
     <col min="7" max="7" width="23.5" customWidth="1"/>
     <col min="8" max="8" width="18.1640625" customWidth="1"/>
     <col min="9" max="9" width="25.33203125" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
     <col min="11" max="11" width="25.5" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
     <col min="13" max="14" width="18.6640625" customWidth="1"/>
     <col min="15" max="15" width="22.5" customWidth="1"/>
     <col min="16" max="16" width="31.83203125" customWidth="1"/>
@@ -11413,7 +11413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2F56-38DA-1440-8447-6C36029D01F5}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -15724,10 +15724,10 @@
   <dimension ref="A1:BF44"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="3" ySplit="9" topLeftCell="AW10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="9" topLeftCell="X28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="BC5" sqref="BC5"/>
+      <selection pane="bottomRight" activeCell="AB13" sqref="AB13:AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/source_data/protocols/NCT04573309/NCT04573309.xlsx
+++ b/source_data/protocols/NCT04573309/NCT04573309.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/protocols/NCT04573309/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F7B500-1BEC-AB4A-9F3E-266A3D87FE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680531C1-94B9-1242-9AF2-991200F6B004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38140" yWindow="500" windowWidth="36400" windowHeight="19900" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -485,10 +485,10 @@
     <t>scopes</t>
   </si>
   <si>
+    <t>Sponsor Approval Date</t>
+  </si>
+  <si>
     <t>protocol_document</t>
-  </si>
-  <si>
-    <t>Protocol Effective Date</t>
   </si>
   <si>
     <t>Global</t>
@@ -6972,8 +6972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E79CD3-D94C-A14B-9EDC-9C26AFA63552}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7154,7 +7154,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
         <v>1356</v>
@@ -7166,7 +7166,7 @@
         <v>1352</v>
       </c>
       <c r="E17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F17" s="29">
         <v>43963</v>
@@ -7177,7 +7177,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
         <v>1357</v>
@@ -7189,7 +7189,7 @@
         <v>1353</v>
       </c>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F18" s="29">
         <v>44061</v>
@@ -7200,7 +7200,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B19" t="s">
         <v>1358</v>
@@ -7212,7 +7212,7 @@
         <v>1354</v>
       </c>
       <c r="E19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F19" s="29">
         <v>44274</v>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s">
         <v>1359</v>
@@ -7235,7 +7235,7 @@
         <v>1355</v>
       </c>
       <c r="E20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F20" s="29">
         <v>44439</v>
@@ -7246,7 +7246,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
         <v>1360</v>
@@ -7258,7 +7258,7 @@
         <v>1366</v>
       </c>
       <c r="E21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F21" s="29">
         <v>44638</v>

--- a/source_data/protocols/NCT04573309/NCT04573309.xlsx
+++ b/source_data/protocols/NCT04573309/NCT04573309.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/protocols/NCT04573309/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFC605C-66DE-AA4E-9E17-A08F2D5C33E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16345BD0-3EB4-B04E-93D6-B39103FFA51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41860" yWindow="520" windowWidth="36400" windowHeight="19900" firstSheet="18" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41860" yWindow="520" windowWidth="36400" windowHeight="19900" firstSheet="20" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -41,14 +41,15 @@
     <sheet name="dictionaries" sheetId="26" r:id="rId26"/>
     <sheet name="documentContent" sheetId="28" r:id="rId27"/>
     <sheet name="document" sheetId="29" r:id="rId28"/>
-    <sheet name="configuration" sheetId="27" r:id="rId29"/>
+    <sheet name="abbreviations" sheetId="32" r:id="rId29"/>
+    <sheet name="configuration" sheetId="27" r:id="rId30"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3457" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="1606">
   <si>
     <t>name</t>
   </si>
@@ -3512,17 +3513,6 @@
   </si>
   <si>
     <t>NCI_5</t>
-  </si>
-  <si>
-    <t>&lt;usdm:macro id="section" name="timeline" template="plain" timeline="mainTimeline"/&gt;
-&lt;usdm:macro id="section" name="timeline" template="plain" timeline="adverseEventTimeline"/&gt;
-&lt;usdm:macro id="section" name="timeline" template="plain" timeline="earlyTerminationTimeline"/&gt;
-&lt;usdm:macro id="section" name="timeline" template="plain" timeline="unscheduledTimeline"/&gt;
-&lt;p&gt;&lt;small&gt;Abbreviations: AE = adverse event; BMI = body mass index; C-I = check-in; Cu = copper; D = day; ECG = electrocardiogram; EOS/ET = End of Study or Early Termination; HIV = human immunodeficiency virus; HR = heart rate; LBC = labile bound copper; Mo = molybdenum; OP = outpatient; PD = pharmacodynamic; PK = pharmacokinetics; PUF = plasma ultrafiltrate; UNS = unscheduled; WD = Wilson disease.&lt;/small&gt;&lt;/p&gt;
-&lt;usdm:macro id="section" name="timeline" template="plain" timeline="pkPdTimeline"/&gt;
-&lt;p&gt;Note: Windows for PK/PD time points will be defined as ±10% of the nominal time point. On Days 1 and 39, triplicate 12-lead ECG will be collected at 4 hours postdose. When multiple procedures are scheduled to occur at the same time, the following order of events should be strictly adhered to whenever possible: ECG, vital signs, blood sampling (eg, for PK/PD), study intervention administration, and meal.&lt;/p&gt;
-&lt;p&gt;&lt;small&gt;Abbreviations: Cu = copper; LBC = labile bound copper; Mo = molybdenum; PD = pharmacodynamic; 
-PK = pharmacokinetic; PUF = plasma ultrafiltrate.&lt;/small&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>NCI_6</t>
@@ -6900,6 +6890,125 @@
   <si>
     <t>REFERENCES</t>
   </si>
+  <si>
+    <t>adverse event</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>body mass index</t>
+  </si>
+  <si>
+    <t>C-I</t>
+  </si>
+  <si>
+    <t>check-in</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>copper</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>ECG</t>
+  </si>
+  <si>
+    <t>electrocardiogram</t>
+  </si>
+  <si>
+    <t>EOS/ET</t>
+  </si>
+  <si>
+    <t>End of Study or Early Termination</t>
+  </si>
+  <si>
+    <t>HIV</t>
+  </si>
+  <si>
+    <t>human immunodeficiency virus</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>heart rate</t>
+  </si>
+  <si>
+    <t>LBC</t>
+  </si>
+  <si>
+    <t>labile bound copper</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>molybdenum</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>outpatient</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t>pharmacodynamic</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>pharmacokinetics</t>
+  </si>
+  <si>
+    <t>PUF</t>
+  </si>
+  <si>
+    <t>plasma ultrafiltrate</t>
+  </si>
+  <si>
+    <t>UNS</t>
+  </si>
+  <si>
+    <t>unscheduled</t>
+  </si>
+  <si>
+    <t>WD</t>
+  </si>
+  <si>
+    <t>Wilson disease</t>
+  </si>
+  <si>
+    <t>abbreviatedText</t>
+  </si>
+  <si>
+    <t>expandedText</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>&lt;usdm:macro id="section" name="timeline" template="plain" timeline="mainTimeline"/&gt;
+&lt;usdm:macro id="section" name="timeline" template="plain" timeline="adverseEventTimeline"/&gt;
+&lt;usdm:macro id="section" name="timeline" template="plain" timeline="earlyTerminationTimeline"/&gt;
+&lt;usdm:macro id="section" name="timeline" template="plain" timeline="unscheduledTimeline"/&gt;
+&lt;p&gt;&lt;small&gt;Abbreviations: &lt;usdm:macro id="abbreviations" items="AE, BMI, C-I, Cu, D, ECG, EOS/ET, HIV, HR, LBC, Mo, OP, PD, PK, PUF, UNS, WD" separator=";"/&gt;&lt;/small&gt;&lt;/p&gt;
+&lt;usdm:macro id="section" name="timeline" template="plain" timeline="pkPdTimeline"/&gt;
+&lt;p&gt;Note: Windows for PK/PD time points will be defined as ±10% of the nominal time point. On Days 1 and 39, triplicate 12-lead ECG will be collected at 4 hours postdose. When multiple procedures are scheduled to occur at the same time, the following order of events should be strictly adhered to whenever possible: ECG, vital signs, blood sampling (eg, for PK/PD), study intervention administration, and meal.&lt;/p&gt;
+&lt;p&gt;&lt;small&gt;Abbreviations: Cu = copper; LBC = labile bound copper; Mo = molybdenum; PD = pharmacodynamic; 
+PK = pharmacokinetic; PUF = plasma ultrafiltrate.&lt;/small&gt;&lt;/p&gt;</t>
+  </si>
 </sst>
 </file>
 
@@ -7064,7 +7173,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -7209,18 +7318,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -13979,8 +14091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="B6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14001,7 +14113,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1050</v>
       </c>
@@ -14030,103 +14142,103 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="288" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1057</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>1058</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B7" s="43" t="s">
         <v>1059</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="288" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B8" s="43" t="s">
         <v>1061</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="304" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B9" s="43" t="s">
         <v>1063</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B10" s="43" t="s">
         <v>1065</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B11" s="43" t="s">
         <v>1067</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B12" s="43" t="s">
         <v>1069</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="208" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B13" s="43" t="s">
         <v>1071</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B14" s="43" t="s">
         <v>1073</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B15" s="43" t="s">
         <v>1075</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B16" s="43"/>
     </row>
     <row r="17" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B17" s="43" t="s">
         <v>1078</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B18" s="43" t="s">
         <v>105</v>
@@ -14134,694 +14246,694 @@
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B19" s="43" t="s">
         <v>1081</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="240" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B20" s="43" t="s">
         <v>1083</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B21" s="43" t="s">
         <v>1085</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B22" s="43" t="s">
         <v>1087</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B23" s="43" t="s">
         <v>1089</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B24" s="43" t="s">
         <v>1091</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B25" s="43" t="s">
         <v>1093</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B26" s="43" t="s">
         <v>1095</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B27" s="43" t="s">
         <v>1097</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B28" s="43" t="s">
         <v>1099</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B29" s="43" t="s">
         <v>1101</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B30" s="43" t="s">
         <v>1103</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B31" s="43" t="s">
         <v>1105</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="160" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B32" s="43" t="s">
         <v>1107</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="256" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B33" s="43" t="s">
         <v>1109</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B34" s="43" t="s">
         <v>1111</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B35" s="43" t="s">
         <v>1113</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B36" s="43" t="s">
         <v>1115</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="240" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B38" s="43" t="s">
         <v>1118</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="176" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B39" s="43" t="s">
         <v>1120</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="160" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B40" s="43" t="s">
         <v>1122</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="224" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B41" s="43" t="s">
         <v>1124</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B42" s="43" t="s">
         <v>1126</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B43" s="43" t="s">
         <v>1128</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B44" s="43" t="s">
         <v>1130</v>
-      </c>
-      <c r="B44" s="43" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B45" s="43" t="s">
         <v>1132</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B46" s="43" t="s">
         <v>1134</v>
-      </c>
-      <c r="B46" s="43" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B47" s="43" t="s">
         <v>1136</v>
-      </c>
-      <c r="B47" s="43" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B48" s="43" t="s">
         <v>1138</v>
-      </c>
-      <c r="B48" s="43" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="176" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B49" s="43" t="s">
         <v>1140</v>
-      </c>
-      <c r="B49" s="43" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B50" s="43" t="s">
         <v>1142</v>
-      </c>
-      <c r="B50" s="43" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="208" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B51" s="43" t="s">
         <v>1144</v>
-      </c>
-      <c r="B51" s="43" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B52" s="43" t="s">
         <v>1146</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B53" s="43" t="s">
         <v>1148</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B54" s="43" t="s">
         <v>1150</v>
-      </c>
-      <c r="B54" s="43" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="320" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B55" s="43" t="s">
         <v>1152</v>
-      </c>
-      <c r="B55" s="43" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B56" s="43" t="s">
         <v>1154</v>
-      </c>
-      <c r="B56" s="43" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B57" s="43" t="s">
         <v>1156</v>
-      </c>
-      <c r="B57" s="43" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B58" s="43" t="s">
         <v>1158</v>
-      </c>
-      <c r="B58" s="43" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B59" s="43" t="s">
         <v>1160</v>
-      </c>
-      <c r="B59" s="43" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="160" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B60" s="43" t="s">
         <v>1162</v>
-      </c>
-      <c r="B60" s="43" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B61" s="43" t="s">
         <v>1164</v>
-      </c>
-      <c r="B61" s="43" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B62" s="43" t="s">
         <v>1166</v>
-      </c>
-      <c r="B62" s="43" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="208" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B63" s="43" t="s">
         <v>1168</v>
-      </c>
-      <c r="B63" s="43" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="192" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B64" s="43" t="s">
         <v>1170</v>
-      </c>
-      <c r="B64" s="43" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B65" s="43" t="s">
         <v>1172</v>
-      </c>
-      <c r="B65" s="43" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B66" s="43" t="s">
         <v>1174</v>
-      </c>
-      <c r="B66" s="43" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B67" s="43" t="s">
         <v>1176</v>
-      </c>
-      <c r="B67" s="43" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B69" s="43" t="s">
         <v>1179</v>
-      </c>
-      <c r="B69" s="43" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B70" s="43" t="s">
         <v>1181</v>
-      </c>
-      <c r="B70" s="43" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B72" s="43" t="s">
         <v>1184</v>
-      </c>
-      <c r="B72" s="43" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B73" s="43" t="s">
         <v>1186</v>
-      </c>
-      <c r="B73" s="43" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B74" s="43" t="s">
         <v>1188</v>
-      </c>
-      <c r="B74" s="43" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B75" s="43" t="s">
         <v>1190</v>
-      </c>
-      <c r="B75" s="43" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="256" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B76" s="43" t="s">
         <v>1192</v>
-      </c>
-      <c r="B76" s="43" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B77" s="43" t="s">
         <v>1194</v>
-      </c>
-      <c r="B77" s="43" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="208" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B78" s="43" t="s">
         <v>1196</v>
-      </c>
-      <c r="B78" s="43" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B79" s="43" t="s">
         <v>1198</v>
-      </c>
-      <c r="B79" s="43" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B80" s="43" t="s">
         <v>1200</v>
-      </c>
-      <c r="B80" s="43" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B81" s="43" t="s">
         <v>1202</v>
-      </c>
-      <c r="B81" s="43" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B82" s="43" t="s">
         <v>1204</v>
-      </c>
-      <c r="B82" s="43" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B84" s="43"/>
     </row>
     <row r="85" spans="1:2" ht="224" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B85" s="43" t="s">
         <v>1208</v>
-      </c>
-      <c r="B85" s="43" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B86" s="43" t="s">
         <v>1210</v>
-      </c>
-      <c r="B86" s="43" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B87" s="43" t="s">
         <v>1212</v>
-      </c>
-      <c r="B87" s="43" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B88" s="43" t="s">
         <v>1214</v>
-      </c>
-      <c r="B88" s="43" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B89" s="43" t="s">
         <v>1216</v>
-      </c>
-      <c r="B89" s="43" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="176" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B90" s="43" t="s">
         <v>1218</v>
-      </c>
-      <c r="B90" s="43" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B91" s="43" t="s">
         <v>1220</v>
-      </c>
-      <c r="B91" s="43" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="224" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B92" s="43" t="s">
         <v>1222</v>
-      </c>
-      <c r="B92" s="43" t="s">
-        <v>1223</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B93" s="43" t="s">
         <v>1224</v>
-      </c>
-      <c r="B93" s="43" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B94" s="43" t="s">
         <v>1226</v>
-      </c>
-      <c r="B94" s="43" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B95" s="43"/>
     </row>
     <row r="96" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B96" s="43" t="s">
         <v>1229</v>
-      </c>
-      <c r="B96" s="43" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B97" s="43" t="s">
         <v>1231</v>
-      </c>
-      <c r="B97" s="43" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B98" s="43" t="s">
         <v>1233</v>
-      </c>
-      <c r="B98" s="43" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B99" s="43" t="s">
         <v>1235</v>
-      </c>
-      <c r="B99" s="43" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B100" s="43"/>
     </row>
     <row r="101" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B101" s="43" t="s">
         <v>1238</v>
-      </c>
-      <c r="B101" s="43" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B102" s="43" t="s">
         <v>1240</v>
-      </c>
-      <c r="B102" s="43" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="365" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B103" s="43" t="s">
         <v>1242</v>
-      </c>
-      <c r="B103" s="43" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B104" s="43" t="s">
         <v>1244</v>
-      </c>
-      <c r="B104" s="43" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B105" s="43" t="s">
         <v>1246</v>
-      </c>
-      <c r="B105" s="43" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="350" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B106" s="43" t="s">
         <v>1248</v>
-      </c>
-      <c r="B106" s="43" t="s">
-        <v>1249</v>
       </c>
     </row>
   </sheetData>
@@ -14841,9 +14953,9 @@
   <cols>
     <col min="1" max="1" width="12.1640625" style="50" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="51" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="55" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="52" customWidth="1"/>
     <col min="4" max="4" width="102.33203125" style="43" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="56" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="53" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
     <col min="7" max="16384" width="30" style="36"/>
   </cols>
@@ -14853,33 +14965,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="49" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C1" s="48" t="s">
         <v>1250</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="D1" s="49" t="s">
         <v>1251</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="E1" s="48" t="s">
         <v>1252</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="F1" s="49" t="s">
         <v>1253</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>1255</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>1256</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>863</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>863</v>
@@ -14890,16 +15002,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B3" s="50" t="s">
         <v>1258</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>1259</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>58</v>
@@ -14910,16 +15022,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B4" s="50" t="s">
         <v>1261</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>1262</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>58</v>
@@ -14930,16 +15042,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B5" s="50" t="s">
         <v>1264</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>1265</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>58</v>
@@ -14950,16 +15062,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B6" s="50" t="s">
         <v>1267</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>1268</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>58</v>
@@ -14970,2002 +15082,2002 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B7" s="50" t="s">
         <v>1270</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>1271</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B8" s="50" t="s">
         <v>1273</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>1274</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B9" s="50" t="s">
         <v>1276</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>1277</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B10" s="50" t="s">
         <v>1279</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>1280</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B11" s="50" t="s">
         <v>1282</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>1283</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B12" s="50" t="s">
         <v>1285</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>1286</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B13" s="50" t="s">
         <v>1288</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>1289</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B14" s="50" t="s">
         <v>1291</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>1292</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B15" s="50" t="s">
         <v>1294</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>1295</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B16" s="50" t="s">
         <v>1297</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>1298</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B17" s="50" t="s">
         <v>1300</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>1301</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B18" s="50" t="s">
         <v>1303</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>1304</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B19" s="50" t="s">
         <v>1306</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>1307</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B20" s="50" t="s">
         <v>1309</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>1310</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B21" s="50" t="s">
         <v>1312</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>1313</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B22" s="50" t="s">
         <v>1315</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>1316</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B23" s="50" t="s">
         <v>1318</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>1319</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B24" s="50" t="s">
         <v>1321</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>1322</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D24" s="50" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B25" s="50" t="s">
         <v>1324</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>1325</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D25" s="50" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F25" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B26" s="50" t="s">
         <v>1327</v>
-      </c>
-      <c r="B26" s="50" t="s">
-        <v>1328</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="50" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B27" s="50" t="s">
         <v>1330</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>1331</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D27" s="50" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B28" s="50" t="s">
         <v>1333</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>1334</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="50" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B29" s="50" t="s">
         <v>1336</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>1337</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="50" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B30" s="50" t="s">
         <v>1339</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>1340</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="50" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F30" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B31" s="50" t="s">
         <v>1342</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>1343</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D31" s="50" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B32" s="50" t="s">
         <v>1345</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>1346</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="50" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F32" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B33" s="50" t="s">
         <v>1348</v>
-      </c>
-      <c r="B33" s="50" t="s">
-        <v>1349</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D33" s="50" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F33" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B34" s="50" t="s">
         <v>1351</v>
-      </c>
-      <c r="B34" s="50" t="s">
-        <v>1352</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D34" s="50" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F34" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B35" s="50" t="s">
         <v>1354</v>
-      </c>
-      <c r="B35" s="50" t="s">
-        <v>1355</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D35" s="50" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F35" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B36" s="50" t="s">
         <v>1357</v>
-      </c>
-      <c r="B36" s="50" t="s">
-        <v>1358</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D36" s="50" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F36" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B37" s="50" t="s">
         <v>1360</v>
-      </c>
-      <c r="B37" s="50" t="s">
-        <v>1361</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D37" s="50" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F37" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B38" s="50" t="s">
         <v>1363</v>
-      </c>
-      <c r="B38" s="50" t="s">
-        <v>1364</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="50" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F38" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B39" s="50" t="s">
         <v>1366</v>
-      </c>
-      <c r="B39" s="50" t="s">
-        <v>1367</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D39" s="50" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F39" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B40" s="50" t="s">
         <v>1369</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>1370</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="50" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F40" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B41" s="50" t="s">
         <v>1372</v>
-      </c>
-      <c r="B41" s="50" t="s">
-        <v>1373</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D41" s="50" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F41" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B42" s="50" t="s">
         <v>1375</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>1376</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D42" s="50" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F42" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B43" s="50" t="s">
         <v>1378</v>
-      </c>
-      <c r="B43" s="50" t="s">
-        <v>1379</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D43" s="50" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B44" s="50" t="s">
         <v>1381</v>
-      </c>
-      <c r="B44" s="50" t="s">
-        <v>1382</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D44" s="50" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B45" s="50" t="s">
         <v>1384</v>
-      </c>
-      <c r="B45" s="50" t="s">
-        <v>1385</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="50" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B46" s="50" t="s">
         <v>1387</v>
-      </c>
-      <c r="B46" s="50" t="s">
-        <v>1388</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D46" s="50" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F46" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B47" s="50" t="s">
         <v>1390</v>
-      </c>
-      <c r="B47" s="50" t="s">
-        <v>1391</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D47" s="50" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F47" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B48" s="50" t="s">
         <v>1393</v>
-      </c>
-      <c r="B48" s="50" t="s">
-        <v>1394</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D48" s="50" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F48" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B49" s="50" t="s">
         <v>1396</v>
-      </c>
-      <c r="B49" s="50" t="s">
-        <v>1397</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D49" s="50" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F49" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B50" s="50" t="s">
         <v>1399</v>
-      </c>
-      <c r="B50" s="50" t="s">
-        <v>1400</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D50" s="50" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F50" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B51" s="50" t="s">
         <v>1402</v>
-      </c>
-      <c r="B51" s="50" t="s">
-        <v>1403</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D51" s="50" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F51" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B52" s="50" t="s">
         <v>1405</v>
-      </c>
-      <c r="B52" s="50" t="s">
-        <v>1406</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D52" s="50" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F52" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B53" s="50" t="s">
         <v>1408</v>
-      </c>
-      <c r="B53" s="50" t="s">
-        <v>1409</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D53" s="50" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F53" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B54" s="50" t="s">
         <v>1411</v>
-      </c>
-      <c r="B54" s="50" t="s">
-        <v>1412</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D54" s="50" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F54" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B55" s="50" t="s">
         <v>1414</v>
-      </c>
-      <c r="B55" s="50" t="s">
-        <v>1415</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D55" s="50" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F55" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B56" s="50" t="s">
         <v>1417</v>
-      </c>
-      <c r="B56" s="50" t="s">
-        <v>1418</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D56" s="50" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F56" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B57" s="50" t="s">
         <v>1420</v>
-      </c>
-      <c r="B57" s="50" t="s">
-        <v>1421</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D57" s="50" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F57" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B58" s="50" t="s">
         <v>1423</v>
-      </c>
-      <c r="B58" s="50" t="s">
-        <v>1424</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D58" s="50" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F58" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B59" s="50" t="s">
         <v>1426</v>
-      </c>
-      <c r="B59" s="50" t="s">
-        <v>1427</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D59" s="50" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B60" s="50" t="s">
         <v>1429</v>
-      </c>
-      <c r="B60" s="50" t="s">
-        <v>1430</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D60" s="50" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F60" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B61" s="50" t="s">
         <v>1432</v>
-      </c>
-      <c r="B61" s="50" t="s">
-        <v>1433</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D61" s="50" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F61" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B62" s="50" t="s">
         <v>1435</v>
-      </c>
-      <c r="B62" s="50" t="s">
-        <v>1436</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D62" s="50" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F62" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B63" s="50" t="s">
         <v>1438</v>
-      </c>
-      <c r="B63" s="50" t="s">
-        <v>1439</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D63" s="50" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F63" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B64" s="50" t="s">
         <v>1441</v>
-      </c>
-      <c r="B64" s="50" t="s">
-        <v>1442</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D64" s="50" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F64" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B65" s="50" t="s">
         <v>1444</v>
-      </c>
-      <c r="B65" s="50" t="s">
-        <v>1445</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D65" s="50" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F65" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B66" s="50" t="s">
         <v>1447</v>
-      </c>
-      <c r="B66" s="50" t="s">
-        <v>1448</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="50" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F66" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B67" s="50" t="s">
         <v>1450</v>
-      </c>
-      <c r="B67" s="50" t="s">
-        <v>1451</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D67" s="50" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F67" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B68" s="50" t="s">
         <v>1453</v>
-      </c>
-      <c r="B68" s="50" t="s">
-        <v>1454</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D68" s="50" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F68" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B69" s="50" t="s">
         <v>1456</v>
-      </c>
-      <c r="B69" s="50" t="s">
-        <v>1457</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D69" s="50" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F69" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B70" s="50" t="s">
         <v>1459</v>
-      </c>
-      <c r="B70" s="50" t="s">
-        <v>1460</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D70" s="50" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F70" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B71" s="50" t="s">
         <v>1462</v>
-      </c>
-      <c r="B71" s="50" t="s">
-        <v>1463</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D71" s="50" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F71" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B72" s="50" t="s">
         <v>1465</v>
-      </c>
-      <c r="B72" s="50" t="s">
-        <v>1466</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D72" s="50" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F72" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B73" s="50" t="s">
         <v>1468</v>
-      </c>
-      <c r="B73" s="50" t="s">
-        <v>1469</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D73" s="50" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F73" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B74" s="50" t="s">
         <v>1471</v>
-      </c>
-      <c r="B74" s="50" t="s">
-        <v>1472</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D74" s="50" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F74" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B75" s="50" t="s">
         <v>1474</v>
-      </c>
-      <c r="B75" s="50" t="s">
-        <v>1475</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D75" s="50" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F75" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B76" s="50" t="s">
         <v>1477</v>
-      </c>
-      <c r="B76" s="50" t="s">
-        <v>1478</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D76" s="50" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F76" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B77" s="50" t="s">
         <v>1480</v>
-      </c>
-      <c r="B77" s="50" t="s">
-        <v>1481</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D77" s="50" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F77" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B78" s="50" t="s">
         <v>1483</v>
-      </c>
-      <c r="B78" s="50" t="s">
-        <v>1484</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D78" s="50" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F78" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B79" s="50" t="s">
         <v>1486</v>
-      </c>
-      <c r="B79" s="50" t="s">
-        <v>1487</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D79" s="50" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F79" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B80" s="50" t="s">
         <v>1489</v>
-      </c>
-      <c r="B80" s="50" t="s">
-        <v>1490</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D80" s="50" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E80" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F80" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B81" s="50" t="s">
         <v>1492</v>
-      </c>
-      <c r="B81" s="50" t="s">
-        <v>1493</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="50" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E81" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F81" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B82" s="50" t="s">
         <v>1495</v>
-      </c>
-      <c r="B82" s="50" t="s">
-        <v>1496</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D82" s="50" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="E82" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F82" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B83" s="50" t="s">
         <v>1498</v>
-      </c>
-      <c r="B83" s="50" t="s">
-        <v>1499</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D83" s="50" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="E83" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F83" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B84" s="50" t="s">
         <v>1501</v>
-      </c>
-      <c r="B84" s="50" t="s">
-        <v>1502</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D84" s="50" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E84" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F84" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B85" s="50" t="s">
         <v>1504</v>
-      </c>
-      <c r="B85" s="50" t="s">
-        <v>1505</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D85" s="50" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E85" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F85" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B86" s="50" t="s">
         <v>1507</v>
-      </c>
-      <c r="B86" s="50" t="s">
-        <v>1508</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D86" s="50" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="E86" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F86" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B87" s="50" t="s">
         <v>1510</v>
-      </c>
-      <c r="B87" s="50" t="s">
-        <v>1511</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D87" s="50" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F87" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B88" s="50" t="s">
         <v>1513</v>
-      </c>
-      <c r="B88" s="50" t="s">
-        <v>1514</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D88" s="50" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F88" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B89" s="50" t="s">
         <v>1516</v>
-      </c>
-      <c r="B89" s="50" t="s">
-        <v>1517</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D89" s="50" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E89" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F89" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B90" s="50" t="s">
         <v>1519</v>
-      </c>
-      <c r="B90" s="50" t="s">
-        <v>1520</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D90" s="50" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="E90" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F90" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B91" s="50" t="s">
         <v>1522</v>
-      </c>
-      <c r="B91" s="50" t="s">
-        <v>1523</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D91" s="50" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E91" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F91" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B92" s="50" t="s">
         <v>1525</v>
-      </c>
-      <c r="B92" s="50" t="s">
-        <v>1526</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D92" s="50" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="E92" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F92" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B93" s="50" t="s">
         <v>1528</v>
-      </c>
-      <c r="B93" s="50" t="s">
-        <v>1529</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D93" s="50" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E93" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F93" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B94" s="50" t="s">
         <v>1531</v>
-      </c>
-      <c r="B94" s="50" t="s">
-        <v>1532</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D94" s="50" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E94" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F94" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B95" s="50" t="s">
         <v>1534</v>
-      </c>
-      <c r="B95" s="50" t="s">
-        <v>1535</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D95" s="50" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E95" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F95" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B96" s="50" t="s">
         <v>1537</v>
-      </c>
-      <c r="B96" s="50" t="s">
-        <v>1538</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D96" s="50" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E96" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F96" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B97" s="50" t="s">
         <v>1540</v>
-      </c>
-      <c r="B97" s="50" t="s">
-        <v>1541</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D97" s="50" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="E97" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F97" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B98" s="50" t="s">
         <v>1543</v>
-      </c>
-      <c r="B98" s="50" t="s">
-        <v>1544</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D98" s="50" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E98" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F98" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B99" s="50" t="s">
         <v>1546</v>
-      </c>
-      <c r="B99" s="50" t="s">
-        <v>1547</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D99" s="50" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E99" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F99" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B100" s="50" t="s">
         <v>1549</v>
-      </c>
-      <c r="B100" s="50" t="s">
-        <v>1550</v>
       </c>
       <c r="C100" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D100" s="50" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="E100" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F100" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B101" s="50" t="s">
         <v>1552</v>
-      </c>
-      <c r="B101" s="50" t="s">
-        <v>1553</v>
       </c>
       <c r="C101" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D101" s="50" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E101" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F101" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B102" s="50" t="s">
         <v>1555</v>
-      </c>
-      <c r="B102" s="50" t="s">
-        <v>1556</v>
       </c>
       <c r="C102" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D102" s="50" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E102" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F102" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B103" s="50" t="s">
         <v>1558</v>
-      </c>
-      <c r="B103" s="50" t="s">
-        <v>1559</v>
       </c>
       <c r="C103" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D103" s="50" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E103" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F103" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B104" s="50" t="s">
         <v>1561</v>
-      </c>
-      <c r="B104" s="50" t="s">
-        <v>1562</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D104" s="50" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E104" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F104" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B105" s="50" t="s">
         <v>1564</v>
-      </c>
-      <c r="B105" s="50" t="s">
-        <v>1565</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D105" s="50" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="E105" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F105" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B106" s="50" t="s">
         <v>1567</v>
-      </c>
-      <c r="B106" s="50" t="s">
-        <v>1568</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D106" s="50" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="E106" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F106" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
   </sheetData>
@@ -16974,51 +17086,168 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436F4EB7-AE9E-884E-85DF-B96833175199}">
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>1045</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="57" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>482</v>
       </c>
       <c r="B2" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>1045</v>
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1570</v>
       </c>
       <c r="B3" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>1045</v>
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1572</v>
       </c>
       <c r="B4" t="s">
-        <v>1049</v>
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1601</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -17162,6 +17391,55 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F15"/>
@@ -17185,10 +17463,10 @@
       <c r="B1" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -17197,34 +17475,34 @@
       <c r="B2" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:6" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
@@ -17233,9 +17511,9 @@
       <c r="B5" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -17245,21 +17523,21 @@
       <c r="B6" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -17269,9 +17547,9 @@
       <c r="B8" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -17281,9 +17559,9 @@
       <c r="B9" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -17293,9 +17571,9 @@
       <c r="B10" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -17305,21 +17583,21 @@
       <c r="B11" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -17367,6 +17645,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B11:E11"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B10:E10"/>
@@ -17374,11 +17657,6 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/source_data/protocols/NCT04573309/NCT04573309.xlsx
+++ b/source_data/protocols/NCT04573309/NCT04573309.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/protocols/NCT04573309/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16345BD0-3EB4-B04E-93D6-B39103FFA51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8301EE6E-B15C-1C4C-B089-AF1F734E6D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41860" yWindow="520" windowWidth="36400" windowHeight="19900" firstSheet="20" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36400" yWindow="500" windowWidth="36400" windowHeight="19900" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="1606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="1622">
   <si>
     <t>name</t>
   </si>
@@ -7009,6 +7009,54 @@
 &lt;p&gt;&lt;small&gt;Abbreviations: Cu = copper; LBC = labile bound copper; Mo = molybdenum; PD = pharmacodynamic; 
 PK = pharmacokinetic; PUF = plasma ultrafiltrate.&lt;/small&gt;&lt;/p&gt;</t>
   </si>
+  <si>
+    <t>Eligibility</t>
+  </si>
+  <si>
+    <t>Study Administration</t>
+  </si>
+  <si>
+    <t>Enrollment</t>
+  </si>
+  <si>
+    <t>Administration of Study Intervention</t>
+  </si>
+  <si>
+    <t>PK/PD Analyses</t>
+  </si>
+  <si>
+    <t>Safety Assessments / Laboratory Analyses</t>
+  </si>
+  <si>
+    <t>Balance assessments</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Eligibility grouping activity</t>
+  </si>
+  <si>
+    <t>Study Administration grouping activity</t>
+  </si>
+  <si>
+    <t>Enrollment grouping activity</t>
+  </si>
+  <si>
+    <t>Administration of Study Intervention grouping activity</t>
+  </si>
+  <si>
+    <t>PK/PD Analyses grouping activity</t>
+  </si>
+  <si>
+    <t>Safety Assessments / Laboratory Analyses grouping activity</t>
+  </si>
+  <si>
+    <t>Balance assessments grouping activity</t>
+  </si>
+  <si>
+    <t>Other grouping activity</t>
+  </si>
 </sst>
 </file>
 
@@ -7104,7 +7152,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7120,12 +7168,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -7171,9 +7213,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -7284,26 +7326,17 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7331,7 +7364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -11406,16 +11439,16 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="49.6640625" customWidth="1"/>
     <col min="3" max="3" width="91.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11726,8 +11759,97 @@
         <v>813</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1613</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -11833,10 +11955,10 @@
       <c r="D2" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="41" t="s">
         <v>832</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="41" t="s">
         <v>833</v>
       </c>
       <c r="G2" s="39" t="s">
@@ -11845,7 +11967,7 @@
       <c r="H2" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="42" t="s">
         <v>836</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -11872,7 +11994,7 @@
       <c r="Q2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="42" t="s">
         <v>844</v>
       </c>
       <c r="S2" s="3" t="s">
@@ -11904,7 +12026,7 @@
       <c r="Q3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="45" t="s">
+      <c r="R3" s="42" t="s">
         <v>844</v>
       </c>
       <c r="S3" s="3" t="s">
@@ -12082,10 +12204,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C6" s="46"/>
+      <c r="C6" s="43"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C7" s="46"/>
+      <c r="C7" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12265,16 +12387,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="44" t="s">
         <v>141</v>
       </c>
       <c r="E1" s="14" t="s">
@@ -14097,19 +14219,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="50" customWidth="1"/>
-    <col min="2" max="2" width="201.83203125" style="51" customWidth="1"/>
-    <col min="3" max="3" width="46.1640625" style="50" customWidth="1"/>
-    <col min="4" max="4" width="128" style="43" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="47" customWidth="1"/>
+    <col min="2" max="2" width="201.83203125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="46.1640625" style="47" customWidth="1"/>
+    <col min="4" max="4" width="128" style="40" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" style="36" customWidth="1"/>
     <col min="6" max="16384" width="8.83203125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>141</v>
       </c>
     </row>
@@ -14117,7 +14239,7 @@
       <c r="A2" t="s">
         <v>1050</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="40" t="s">
         <v>1051</v>
       </c>
     </row>
@@ -14130,7 +14252,7 @@
       <c r="A4" t="s">
         <v>1053</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="40" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -14138,7 +14260,7 @@
       <c r="A5" t="s">
         <v>1055</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="40" t="s">
         <v>1056</v>
       </c>
     </row>
@@ -14146,7 +14268,7 @@
       <c r="A6" t="s">
         <v>1057</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="40" t="s">
         <v>1605</v>
       </c>
     </row>
@@ -14154,7 +14276,7 @@
       <c r="A7" t="s">
         <v>1058</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="40" t="s">
         <v>1059</v>
       </c>
     </row>
@@ -14162,7 +14284,7 @@
       <c r="A8" t="s">
         <v>1060</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="40" t="s">
         <v>1061</v>
       </c>
     </row>
@@ -14170,7 +14292,7 @@
       <c r="A9" t="s">
         <v>1062</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="40" t="s">
         <v>1063</v>
       </c>
     </row>
@@ -14178,7 +14300,7 @@
       <c r="A10" t="s">
         <v>1064</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="40" t="s">
         <v>1065</v>
       </c>
     </row>
@@ -14186,7 +14308,7 @@
       <c r="A11" t="s">
         <v>1066</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="40" t="s">
         <v>1067</v>
       </c>
     </row>
@@ -14194,7 +14316,7 @@
       <c r="A12" t="s">
         <v>1068</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="40" t="s">
         <v>1069</v>
       </c>
     </row>
@@ -14202,7 +14324,7 @@
       <c r="A13" t="s">
         <v>1070</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="40" t="s">
         <v>1071</v>
       </c>
     </row>
@@ -14210,7 +14332,7 @@
       <c r="A14" t="s">
         <v>1072</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="40" t="s">
         <v>1073</v>
       </c>
     </row>
@@ -14218,7 +14340,7 @@
       <c r="A15" t="s">
         <v>1074</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="40" t="s">
         <v>1075</v>
       </c>
     </row>
@@ -14226,13 +14348,13 @@
       <c r="A16" t="s">
         <v>1076</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="40"/>
     </row>
     <row r="17" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1077</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="40" t="s">
         <v>1078</v>
       </c>
     </row>
@@ -14240,7 +14362,7 @@
       <c r="A18" t="s">
         <v>1079</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="40" t="s">
         <v>105</v>
       </c>
     </row>
@@ -14248,7 +14370,7 @@
       <c r="A19" t="s">
         <v>1080</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="40" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -14256,7 +14378,7 @@
       <c r="A20" t="s">
         <v>1082</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="40" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -14264,7 +14386,7 @@
       <c r="A21" t="s">
         <v>1084</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="40" t="s">
         <v>1085</v>
       </c>
     </row>
@@ -14272,7 +14394,7 @@
       <c r="A22" t="s">
         <v>1086</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="40" t="s">
         <v>1087</v>
       </c>
     </row>
@@ -14280,7 +14402,7 @@
       <c r="A23" t="s">
         <v>1088</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="40" t="s">
         <v>1089</v>
       </c>
     </row>
@@ -14288,7 +14410,7 @@
       <c r="A24" t="s">
         <v>1090</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="40" t="s">
         <v>1091</v>
       </c>
     </row>
@@ -14296,7 +14418,7 @@
       <c r="A25" t="s">
         <v>1092</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="40" t="s">
         <v>1093</v>
       </c>
     </row>
@@ -14304,7 +14426,7 @@
       <c r="A26" t="s">
         <v>1094</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="40" t="s">
         <v>1095</v>
       </c>
     </row>
@@ -14312,7 +14434,7 @@
       <c r="A27" t="s">
         <v>1096</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="40" t="s">
         <v>1097</v>
       </c>
     </row>
@@ -14320,7 +14442,7 @@
       <c r="A28" t="s">
         <v>1098</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="40" t="s">
         <v>1099</v>
       </c>
     </row>
@@ -14328,7 +14450,7 @@
       <c r="A29" t="s">
         <v>1100</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="40" t="s">
         <v>1101</v>
       </c>
     </row>
@@ -14336,7 +14458,7 @@
       <c r="A30" t="s">
         <v>1102</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="40" t="s">
         <v>1103</v>
       </c>
     </row>
@@ -14344,7 +14466,7 @@
       <c r="A31" t="s">
         <v>1104</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="40" t="s">
         <v>1105</v>
       </c>
     </row>
@@ -14352,7 +14474,7 @@
       <c r="A32" t="s">
         <v>1106</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="40" t="s">
         <v>1107</v>
       </c>
     </row>
@@ -14360,7 +14482,7 @@
       <c r="A33" t="s">
         <v>1108</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="40" t="s">
         <v>1109</v>
       </c>
     </row>
@@ -14368,7 +14490,7 @@
       <c r="A34" t="s">
         <v>1110</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="40" t="s">
         <v>1111</v>
       </c>
     </row>
@@ -14376,7 +14498,7 @@
       <c r="A35" t="s">
         <v>1112</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="40" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -14384,7 +14506,7 @@
       <c r="A36" t="s">
         <v>1114</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="40" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -14397,7 +14519,7 @@
       <c r="A38" t="s">
         <v>1117</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="40" t="s">
         <v>1118</v>
       </c>
     </row>
@@ -14405,7 +14527,7 @@
       <c r="A39" t="s">
         <v>1119</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="40" t="s">
         <v>1120</v>
       </c>
     </row>
@@ -14413,7 +14535,7 @@
       <c r="A40" t="s">
         <v>1121</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="40" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -14421,7 +14543,7 @@
       <c r="A41" t="s">
         <v>1123</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="40" t="s">
         <v>1124</v>
       </c>
     </row>
@@ -14429,7 +14551,7 @@
       <c r="A42" t="s">
         <v>1125</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="40" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -14437,7 +14559,7 @@
       <c r="A43" t="s">
         <v>1127</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="40" t="s">
         <v>1128</v>
       </c>
     </row>
@@ -14445,7 +14567,7 @@
       <c r="A44" t="s">
         <v>1129</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="40" t="s">
         <v>1130</v>
       </c>
     </row>
@@ -14453,7 +14575,7 @@
       <c r="A45" t="s">
         <v>1131</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="40" t="s">
         <v>1132</v>
       </c>
     </row>
@@ -14461,7 +14583,7 @@
       <c r="A46" t="s">
         <v>1133</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="40" t="s">
         <v>1134</v>
       </c>
     </row>
@@ -14469,7 +14591,7 @@
       <c r="A47" t="s">
         <v>1135</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="40" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -14477,7 +14599,7 @@
       <c r="A48" t="s">
         <v>1137</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="40" t="s">
         <v>1138</v>
       </c>
     </row>
@@ -14485,7 +14607,7 @@
       <c r="A49" t="s">
         <v>1139</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="40" t="s">
         <v>1140</v>
       </c>
     </row>
@@ -14493,7 +14615,7 @@
       <c r="A50" t="s">
         <v>1141</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="40" t="s">
         <v>1142</v>
       </c>
     </row>
@@ -14501,7 +14623,7 @@
       <c r="A51" t="s">
         <v>1143</v>
       </c>
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="40" t="s">
         <v>1144</v>
       </c>
     </row>
@@ -14509,7 +14631,7 @@
       <c r="A52" t="s">
         <v>1145</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="40" t="s">
         <v>1146</v>
       </c>
     </row>
@@ -14517,7 +14639,7 @@
       <c r="A53" t="s">
         <v>1147</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="40" t="s">
         <v>1148</v>
       </c>
     </row>
@@ -14525,7 +14647,7 @@
       <c r="A54" t="s">
         <v>1149</v>
       </c>
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="40" t="s">
         <v>1150</v>
       </c>
     </row>
@@ -14533,7 +14655,7 @@
       <c r="A55" t="s">
         <v>1151</v>
       </c>
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="40" t="s">
         <v>1152</v>
       </c>
     </row>
@@ -14541,7 +14663,7 @@
       <c r="A56" t="s">
         <v>1153</v>
       </c>
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="40" t="s">
         <v>1154</v>
       </c>
     </row>
@@ -14549,7 +14671,7 @@
       <c r="A57" t="s">
         <v>1155</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B57" s="40" t="s">
         <v>1156</v>
       </c>
     </row>
@@ -14557,7 +14679,7 @@
       <c r="A58" t="s">
         <v>1157</v>
       </c>
-      <c r="B58" s="43" t="s">
+      <c r="B58" s="40" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -14565,7 +14687,7 @@
       <c r="A59" t="s">
         <v>1159</v>
       </c>
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="40" t="s">
         <v>1160</v>
       </c>
     </row>
@@ -14573,7 +14695,7 @@
       <c r="A60" t="s">
         <v>1161</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="40" t="s">
         <v>1162</v>
       </c>
     </row>
@@ -14581,7 +14703,7 @@
       <c r="A61" t="s">
         <v>1163</v>
       </c>
-      <c r="B61" s="43" t="s">
+      <c r="B61" s="40" t="s">
         <v>1164</v>
       </c>
     </row>
@@ -14589,7 +14711,7 @@
       <c r="A62" t="s">
         <v>1165</v>
       </c>
-      <c r="B62" s="43" t="s">
+      <c r="B62" s="40" t="s">
         <v>1166</v>
       </c>
     </row>
@@ -14597,7 +14719,7 @@
       <c r="A63" t="s">
         <v>1167</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="40" t="s">
         <v>1168</v>
       </c>
     </row>
@@ -14605,7 +14727,7 @@
       <c r="A64" t="s">
         <v>1169</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="40" t="s">
         <v>1170</v>
       </c>
     </row>
@@ -14613,7 +14735,7 @@
       <c r="A65" t="s">
         <v>1171</v>
       </c>
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="40" t="s">
         <v>1172</v>
       </c>
     </row>
@@ -14621,7 +14743,7 @@
       <c r="A66" t="s">
         <v>1173</v>
       </c>
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="40" t="s">
         <v>1174</v>
       </c>
     </row>
@@ -14629,7 +14751,7 @@
       <c r="A67" t="s">
         <v>1175</v>
       </c>
-      <c r="B67" s="43" t="s">
+      <c r="B67" s="40" t="s">
         <v>1176</v>
       </c>
     </row>
@@ -14637,7 +14759,7 @@
       <c r="A68" t="s">
         <v>1177</v>
       </c>
-      <c r="B68" s="43" t="s">
+      <c r="B68" s="40" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -14645,7 +14767,7 @@
       <c r="A69" t="s">
         <v>1178</v>
       </c>
-      <c r="B69" s="43" t="s">
+      <c r="B69" s="40" t="s">
         <v>1179</v>
       </c>
     </row>
@@ -14653,7 +14775,7 @@
       <c r="A70" t="s">
         <v>1180</v>
       </c>
-      <c r="B70" s="43" t="s">
+      <c r="B70" s="40" t="s">
         <v>1181</v>
       </c>
     </row>
@@ -14661,7 +14783,7 @@
       <c r="A71" t="s">
         <v>1182</v>
       </c>
-      <c r="B71" s="43" t="s">
+      <c r="B71" s="40" t="s">
         <v>1181</v>
       </c>
     </row>
@@ -14669,7 +14791,7 @@
       <c r="A72" t="s">
         <v>1183</v>
       </c>
-      <c r="B72" s="43" t="s">
+      <c r="B72" s="40" t="s">
         <v>1184</v>
       </c>
     </row>
@@ -14677,7 +14799,7 @@
       <c r="A73" t="s">
         <v>1185</v>
       </c>
-      <c r="B73" s="43" t="s">
+      <c r="B73" s="40" t="s">
         <v>1186</v>
       </c>
     </row>
@@ -14685,7 +14807,7 @@
       <c r="A74" t="s">
         <v>1187</v>
       </c>
-      <c r="B74" s="43" t="s">
+      <c r="B74" s="40" t="s">
         <v>1188</v>
       </c>
     </row>
@@ -14693,7 +14815,7 @@
       <c r="A75" t="s">
         <v>1189</v>
       </c>
-      <c r="B75" s="43" t="s">
+      <c r="B75" s="40" t="s">
         <v>1190</v>
       </c>
     </row>
@@ -14701,7 +14823,7 @@
       <c r="A76" t="s">
         <v>1191</v>
       </c>
-      <c r="B76" s="43" t="s">
+      <c r="B76" s="40" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -14709,7 +14831,7 @@
       <c r="A77" t="s">
         <v>1193</v>
       </c>
-      <c r="B77" s="43" t="s">
+      <c r="B77" s="40" t="s">
         <v>1194</v>
       </c>
     </row>
@@ -14717,7 +14839,7 @@
       <c r="A78" t="s">
         <v>1195</v>
       </c>
-      <c r="B78" s="43" t="s">
+      <c r="B78" s="40" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -14725,7 +14847,7 @@
       <c r="A79" t="s">
         <v>1197</v>
       </c>
-      <c r="B79" s="43" t="s">
+      <c r="B79" s="40" t="s">
         <v>1198</v>
       </c>
     </row>
@@ -14733,7 +14855,7 @@
       <c r="A80" t="s">
         <v>1199</v>
       </c>
-      <c r="B80" s="43" t="s">
+      <c r="B80" s="40" t="s">
         <v>1200</v>
       </c>
     </row>
@@ -14741,7 +14863,7 @@
       <c r="A81" t="s">
         <v>1201</v>
       </c>
-      <c r="B81" s="43" t="s">
+      <c r="B81" s="40" t="s">
         <v>1202</v>
       </c>
     </row>
@@ -14749,7 +14871,7 @@
       <c r="A82" t="s">
         <v>1203</v>
       </c>
-      <c r="B82" s="43" t="s">
+      <c r="B82" s="40" t="s">
         <v>1204</v>
       </c>
     </row>
@@ -14762,13 +14884,13 @@
       <c r="A84" t="s">
         <v>1206</v>
       </c>
-      <c r="B84" s="43"/>
+      <c r="B84" s="40"/>
     </row>
     <row r="85" spans="1:2" ht="224" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1207</v>
       </c>
-      <c r="B85" s="43" t="s">
+      <c r="B85" s="40" t="s">
         <v>1208</v>
       </c>
     </row>
@@ -14776,7 +14898,7 @@
       <c r="A86" t="s">
         <v>1209</v>
       </c>
-      <c r="B86" s="43" t="s">
+      <c r="B86" s="40" t="s">
         <v>1210</v>
       </c>
     </row>
@@ -14784,7 +14906,7 @@
       <c r="A87" t="s">
         <v>1211</v>
       </c>
-      <c r="B87" s="43" t="s">
+      <c r="B87" s="40" t="s">
         <v>1212</v>
       </c>
     </row>
@@ -14792,7 +14914,7 @@
       <c r="A88" t="s">
         <v>1213</v>
       </c>
-      <c r="B88" s="43" t="s">
+      <c r="B88" s="40" t="s">
         <v>1214</v>
       </c>
     </row>
@@ -14800,7 +14922,7 @@
       <c r="A89" t="s">
         <v>1215</v>
       </c>
-      <c r="B89" s="43" t="s">
+      <c r="B89" s="40" t="s">
         <v>1216</v>
       </c>
     </row>
@@ -14808,7 +14930,7 @@
       <c r="A90" t="s">
         <v>1217</v>
       </c>
-      <c r="B90" s="43" t="s">
+      <c r="B90" s="40" t="s">
         <v>1218</v>
       </c>
     </row>
@@ -14816,7 +14938,7 @@
       <c r="A91" t="s">
         <v>1219</v>
       </c>
-      <c r="B91" s="43" t="s">
+      <c r="B91" s="40" t="s">
         <v>1220</v>
       </c>
     </row>
@@ -14824,7 +14946,7 @@
       <c r="A92" t="s">
         <v>1221</v>
       </c>
-      <c r="B92" s="43" t="s">
+      <c r="B92" s="40" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -14832,7 +14954,7 @@
       <c r="A93" t="s">
         <v>1223</v>
       </c>
-      <c r="B93" s="43" t="s">
+      <c r="B93" s="40" t="s">
         <v>1224</v>
       </c>
     </row>
@@ -14840,7 +14962,7 @@
       <c r="A94" t="s">
         <v>1225</v>
       </c>
-      <c r="B94" s="43" t="s">
+      <c r="B94" s="40" t="s">
         <v>1226</v>
       </c>
     </row>
@@ -14848,13 +14970,13 @@
       <c r="A95" t="s">
         <v>1227</v>
       </c>
-      <c r="B95" s="43"/>
+      <c r="B95" s="40"/>
     </row>
     <row r="96" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1228</v>
       </c>
-      <c r="B96" s="43" t="s">
+      <c r="B96" s="40" t="s">
         <v>1229</v>
       </c>
     </row>
@@ -14862,7 +14984,7 @@
       <c r="A97" t="s">
         <v>1230</v>
       </c>
-      <c r="B97" s="43" t="s">
+      <c r="B97" s="40" t="s">
         <v>1231</v>
       </c>
     </row>
@@ -14870,7 +14992,7 @@
       <c r="A98" t="s">
         <v>1232</v>
       </c>
-      <c r="B98" s="43" t="s">
+      <c r="B98" s="40" t="s">
         <v>1233</v>
       </c>
     </row>
@@ -14878,7 +15000,7 @@
       <c r="A99" t="s">
         <v>1234</v>
       </c>
-      <c r="B99" s="43" t="s">
+      <c r="B99" s="40" t="s">
         <v>1235</v>
       </c>
     </row>
@@ -14886,13 +15008,13 @@
       <c r="A100" t="s">
         <v>1236</v>
       </c>
-      <c r="B100" s="43"/>
+      <c r="B100" s="40"/>
     </row>
     <row r="101" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1237</v>
       </c>
-      <c r="B101" s="43" t="s">
+      <c r="B101" s="40" t="s">
         <v>1238</v>
       </c>
     </row>
@@ -14900,7 +15022,7 @@
       <c r="A102" t="s">
         <v>1239</v>
       </c>
-      <c r="B102" s="43" t="s">
+      <c r="B102" s="40" t="s">
         <v>1240</v>
       </c>
     </row>
@@ -14908,7 +15030,7 @@
       <c r="A103" t="s">
         <v>1241</v>
       </c>
-      <c r="B103" s="43" t="s">
+      <c r="B103" s="40" t="s">
         <v>1242</v>
       </c>
     </row>
@@ -14916,7 +15038,7 @@
       <c r="A104" t="s">
         <v>1243</v>
       </c>
-      <c r="B104" s="43" t="s">
+      <c r="B104" s="40" t="s">
         <v>1244</v>
       </c>
     </row>
@@ -14924,7 +15046,7 @@
       <c r="A105" t="s">
         <v>1245</v>
       </c>
-      <c r="B105" s="43" t="s">
+      <c r="B105" s="40" t="s">
         <v>1246</v>
       </c>
     </row>
@@ -14932,7 +15054,7 @@
       <c r="A106" t="s">
         <v>1247</v>
       </c>
-      <c r="B106" s="43" t="s">
+      <c r="B106" s="40" t="s">
         <v>1248</v>
       </c>
     </row>
@@ -14951,32 +15073,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="50" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="51" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="52" customWidth="1"/>
-    <col min="4" max="4" width="102.33203125" style="43" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="53" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="47" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="48" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="49" customWidth="1"/>
+    <col min="4" max="4" width="102.33203125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="50" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
     <col min="7" max="16384" width="30" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>1249</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="45" t="s">
         <v>1250</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="46" t="s">
         <v>1251</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="45" t="s">
         <v>1252</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="46" t="s">
         <v>1253</v>
       </c>
     </row>
@@ -14984,13 +15106,13 @@
       <c r="A2" t="s">
         <v>1254</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="47" t="s">
         <v>1255</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>863</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="47" t="s">
         <v>1256</v>
       </c>
       <c r="E2" s="13" t="s">
@@ -15004,13 +15126,13 @@
       <c r="A3" t="s">
         <v>1257</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="47" t="s">
         <v>1258</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="47" t="s">
         <v>1259</v>
       </c>
       <c r="E3" s="13" t="s">
@@ -15024,13 +15146,13 @@
       <c r="A4" t="s">
         <v>1260</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="47" t="s">
         <v>1261</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="47" t="s">
         <v>1262</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -15044,13 +15166,13 @@
       <c r="A5" t="s">
         <v>1263</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="47" t="s">
         <v>1264</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="47" t="s">
         <v>1265</v>
       </c>
       <c r="E5" s="13" t="s">
@@ -15064,13 +15186,13 @@
       <c r="A6" t="s">
         <v>1266</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="47" t="s">
         <v>1267</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="47" t="s">
         <v>1268</v>
       </c>
       <c r="E6" s="13" t="s">
@@ -15084,13 +15206,13 @@
       <c r="A7" t="s">
         <v>1269</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="47" t="s">
         <v>1270</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="47" t="s">
         <v>1271</v>
       </c>
       <c r="E7" s="13" t="s">
@@ -15104,13 +15226,13 @@
       <c r="A8" t="s">
         <v>1272</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="47" t="s">
         <v>1273</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="47" t="s">
         <v>1274</v>
       </c>
       <c r="E8" s="13" t="s">
@@ -15124,13 +15246,13 @@
       <c r="A9" t="s">
         <v>1275</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="47" t="s">
         <v>1276</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="47" t="s">
         <v>1277</v>
       </c>
       <c r="E9" s="13" t="s">
@@ -15144,13 +15266,13 @@
       <c r="A10" t="s">
         <v>1278</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="47" t="s">
         <v>1279</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="47" t="s">
         <v>1280</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -15164,13 +15286,13 @@
       <c r="A11" t="s">
         <v>1281</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="47" t="s">
         <v>1282</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="47" t="s">
         <v>1283</v>
       </c>
       <c r="E11" s="13" t="s">
@@ -15184,13 +15306,13 @@
       <c r="A12" t="s">
         <v>1284</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="47" t="s">
         <v>1285</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="47" t="s">
         <v>1286</v>
       </c>
       <c r="E12" s="13" t="s">
@@ -15204,13 +15326,13 @@
       <c r="A13" t="s">
         <v>1287</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="47" t="s">
         <v>1288</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="47" t="s">
         <v>1289</v>
       </c>
       <c r="E13" s="13" t="s">
@@ -15224,13 +15346,13 @@
       <c r="A14" t="s">
         <v>1290</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="47" t="s">
         <v>1291</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="47" t="s">
         <v>1292</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -15244,13 +15366,13 @@
       <c r="A15" t="s">
         <v>1293</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="47" t="s">
         <v>1294</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="47" t="s">
         <v>1295</v>
       </c>
       <c r="E15" s="13" t="s">
@@ -15264,13 +15386,13 @@
       <c r="A16" t="s">
         <v>1296</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="47" t="s">
         <v>1297</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="47" t="s">
         <v>1298</v>
       </c>
       <c r="E16" s="13" t="s">
@@ -15284,13 +15406,13 @@
       <c r="A17" t="s">
         <v>1299</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="47" t="s">
         <v>1300</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="47" t="s">
         <v>1301</v>
       </c>
       <c r="E17" s="13" t="s">
@@ -15304,13 +15426,13 @@
       <c r="A18" t="s">
         <v>1302</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="47" t="s">
         <v>1303</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="47" t="s">
         <v>1304</v>
       </c>
       <c r="E18" s="13" t="s">
@@ -15324,13 +15446,13 @@
       <c r="A19" t="s">
         <v>1305</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="47" t="s">
         <v>1306</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="47" t="s">
         <v>1307</v>
       </c>
       <c r="E19" s="13" t="s">
@@ -15344,13 +15466,13 @@
       <c r="A20" t="s">
         <v>1308</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="47" t="s">
         <v>1309</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="47" t="s">
         <v>1310</v>
       </c>
       <c r="E20" s="13" t="s">
@@ -15364,13 +15486,13 @@
       <c r="A21" t="s">
         <v>1311</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="47" t="s">
         <v>1312</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="47" t="s">
         <v>1313</v>
       </c>
       <c r="E21" s="13" t="s">
@@ -15384,13 +15506,13 @@
       <c r="A22" t="s">
         <v>1314</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="47" t="s">
         <v>1315</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="47" t="s">
         <v>1316</v>
       </c>
       <c r="E22" s="13" t="s">
@@ -15404,13 +15526,13 @@
       <c r="A23" t="s">
         <v>1317</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="47" t="s">
         <v>1318</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="47" t="s">
         <v>1319</v>
       </c>
       <c r="E23" s="13" t="s">
@@ -15424,13 +15546,13 @@
       <c r="A24" t="s">
         <v>1320</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="47" t="s">
         <v>1321</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="47" t="s">
         <v>1322</v>
       </c>
       <c r="E24" s="13" t="s">
@@ -15444,13 +15566,13 @@
       <c r="A25" t="s">
         <v>1323</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="47" t="s">
         <v>1324</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="47" t="s">
         <v>1325</v>
       </c>
       <c r="E25" s="13" t="s">
@@ -15464,13 +15586,13 @@
       <c r="A26" t="s">
         <v>1326</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="47" t="s">
         <v>1327</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="47" t="s">
         <v>1328</v>
       </c>
       <c r="E26" s="13" t="s">
@@ -15484,13 +15606,13 @@
       <c r="A27" t="s">
         <v>1329</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="47" t="s">
         <v>1330</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="47" t="s">
         <v>1331</v>
       </c>
       <c r="E27" s="13" t="s">
@@ -15504,13 +15626,13 @@
       <c r="A28" t="s">
         <v>1332</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="47" t="s">
         <v>1333</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="47" t="s">
         <v>1334</v>
       </c>
       <c r="E28" s="13" t="s">
@@ -15524,13 +15646,13 @@
       <c r="A29" t="s">
         <v>1335</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="47" t="s">
         <v>1336</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="47" t="s">
         <v>1337</v>
       </c>
       <c r="E29" s="13" t="s">
@@ -15544,13 +15666,13 @@
       <c r="A30" t="s">
         <v>1338</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="47" t="s">
         <v>1339</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="47" t="s">
         <v>1340</v>
       </c>
       <c r="E30" s="13" t="s">
@@ -15564,13 +15686,13 @@
       <c r="A31" t="s">
         <v>1341</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="47" t="s">
         <v>1342</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="47" t="s">
         <v>1343</v>
       </c>
       <c r="E31" s="13" t="s">
@@ -15584,13 +15706,13 @@
       <c r="A32" t="s">
         <v>1344</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="47" t="s">
         <v>1345</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="47" t="s">
         <v>1346</v>
       </c>
       <c r="E32" s="13" t="s">
@@ -15604,13 +15726,13 @@
       <c r="A33" t="s">
         <v>1347</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="47" t="s">
         <v>1348</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="47" t="s">
         <v>1349</v>
       </c>
       <c r="E33" s="13" t="s">
@@ -15624,13 +15746,13 @@
       <c r="A34" t="s">
         <v>1350</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="47" t="s">
         <v>1351</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="47" t="s">
         <v>1352</v>
       </c>
       <c r="E34" s="13" t="s">
@@ -15644,13 +15766,13 @@
       <c r="A35" t="s">
         <v>1353</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="47" t="s">
         <v>1354</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="47" t="s">
         <v>1355</v>
       </c>
       <c r="E35" s="13" t="s">
@@ -15664,13 +15786,13 @@
       <c r="A36" t="s">
         <v>1356</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="47" t="s">
         <v>1357</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="47" t="s">
         <v>1358</v>
       </c>
       <c r="E36" s="13" t="s">
@@ -15684,13 +15806,13 @@
       <c r="A37" t="s">
         <v>1359</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="47" t="s">
         <v>1360</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="47" t="s">
         <v>1361</v>
       </c>
       <c r="E37" s="13" t="s">
@@ -15704,13 +15826,13 @@
       <c r="A38" t="s">
         <v>1362</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="47" t="s">
         <v>1363</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="47" t="s">
         <v>1364</v>
       </c>
       <c r="E38" s="13" t="s">
@@ -15724,13 +15846,13 @@
       <c r="A39" t="s">
         <v>1365</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="47" t="s">
         <v>1366</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="47" t="s">
         <v>1367</v>
       </c>
       <c r="E39" s="13" t="s">
@@ -15744,13 +15866,13 @@
       <c r="A40" t="s">
         <v>1368</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="47" t="s">
         <v>1369</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="47" t="s">
         <v>1370</v>
       </c>
       <c r="E40" s="13" t="s">
@@ -15764,13 +15886,13 @@
       <c r="A41" t="s">
         <v>1371</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="47" t="s">
         <v>1372</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="47" t="s">
         <v>1373</v>
       </c>
       <c r="E41" s="13" t="s">
@@ -15784,13 +15906,13 @@
       <c r="A42" t="s">
         <v>1374</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="47" t="s">
         <v>1375</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="47" t="s">
         <v>1376</v>
       </c>
       <c r="E42" s="13" t="s">
@@ -15804,13 +15926,13 @@
       <c r="A43" t="s">
         <v>1377</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="47" t="s">
         <v>1378</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="47" t="s">
         <v>1379</v>
       </c>
       <c r="E43" s="13" t="s">
@@ -15824,13 +15946,13 @@
       <c r="A44" t="s">
         <v>1380</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="47" t="s">
         <v>1381</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="47" t="s">
         <v>1382</v>
       </c>
       <c r="E44" s="13" t="s">
@@ -15844,13 +15966,13 @@
       <c r="A45" t="s">
         <v>1383</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="47" t="s">
         <v>1384</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="50" t="s">
+      <c r="D45" s="47" t="s">
         <v>1385</v>
       </c>
       <c r="E45" s="13" t="s">
@@ -15864,13 +15986,13 @@
       <c r="A46" t="s">
         <v>1386</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="47" t="s">
         <v>1387</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="50" t="s">
+      <c r="D46" s="47" t="s">
         <v>1388</v>
       </c>
       <c r="E46" s="13" t="s">
@@ -15884,13 +16006,13 @@
       <c r="A47" t="s">
         <v>1389</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="47" t="s">
         <v>1390</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="50" t="s">
+      <c r="D47" s="47" t="s">
         <v>1391</v>
       </c>
       <c r="E47" s="13" t="s">
@@ -15904,13 +16026,13 @@
       <c r="A48" t="s">
         <v>1392</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="47" t="s">
         <v>1393</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="50" t="s">
+      <c r="D48" s="47" t="s">
         <v>1394</v>
       </c>
       <c r="E48" s="13" t="s">
@@ -15924,13 +16046,13 @@
       <c r="A49" t="s">
         <v>1395</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="47" t="s">
         <v>1396</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="50" t="s">
+      <c r="D49" s="47" t="s">
         <v>1397</v>
       </c>
       <c r="E49" s="13" t="s">
@@ -15944,13 +16066,13 @@
       <c r="A50" t="s">
         <v>1398</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="47" t="s">
         <v>1399</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="50" t="s">
+      <c r="D50" s="47" t="s">
         <v>1400</v>
       </c>
       <c r="E50" s="13" t="s">
@@ -15964,13 +16086,13 @@
       <c r="A51" t="s">
         <v>1401</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="47" t="s">
         <v>1402</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="50" t="s">
+      <c r="D51" s="47" t="s">
         <v>1403</v>
       </c>
       <c r="E51" s="13" t="s">
@@ -15984,13 +16106,13 @@
       <c r="A52" t="s">
         <v>1404</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="47" t="s">
         <v>1405</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="50" t="s">
+      <c r="D52" s="47" t="s">
         <v>1406</v>
       </c>
       <c r="E52" s="13" t="s">
@@ -16004,13 +16126,13 @@
       <c r="A53" t="s">
         <v>1407</v>
       </c>
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="47" t="s">
         <v>1408</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="50" t="s">
+      <c r="D53" s="47" t="s">
         <v>1409</v>
       </c>
       <c r="E53" s="13" t="s">
@@ -16024,13 +16146,13 @@
       <c r="A54" t="s">
         <v>1410</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="47" t="s">
         <v>1411</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="50" t="s">
+      <c r="D54" s="47" t="s">
         <v>1412</v>
       </c>
       <c r="E54" s="13" t="s">
@@ -16044,13 +16166,13 @@
       <c r="A55" t="s">
         <v>1413</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="47" t="s">
         <v>1414</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="50" t="s">
+      <c r="D55" s="47" t="s">
         <v>1415</v>
       </c>
       <c r="E55" s="13" t="s">
@@ -16064,13 +16186,13 @@
       <c r="A56" t="s">
         <v>1416</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="47" t="s">
         <v>1417</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="50" t="s">
+      <c r="D56" s="47" t="s">
         <v>1418</v>
       </c>
       <c r="E56" s="13" t="s">
@@ -16084,13 +16206,13 @@
       <c r="A57" t="s">
         <v>1419</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="47" t="s">
         <v>1420</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="50" t="s">
+      <c r="D57" s="47" t="s">
         <v>1421</v>
       </c>
       <c r="E57" s="13" t="s">
@@ -16104,13 +16226,13 @@
       <c r="A58" t="s">
         <v>1422</v>
       </c>
-      <c r="B58" s="50" t="s">
+      <c r="B58" s="47" t="s">
         <v>1423</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="50" t="s">
+      <c r="D58" s="47" t="s">
         <v>1424</v>
       </c>
       <c r="E58" s="13" t="s">
@@ -16124,13 +16246,13 @@
       <c r="A59" t="s">
         <v>1425</v>
       </c>
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="47" t="s">
         <v>1426</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D59" s="50" t="s">
+      <c r="D59" s="47" t="s">
         <v>1427</v>
       </c>
       <c r="E59" s="13" t="s">
@@ -16144,13 +16266,13 @@
       <c r="A60" t="s">
         <v>1428</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="47" t="s">
         <v>1429</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="50" t="s">
+      <c r="D60" s="47" t="s">
         <v>1430</v>
       </c>
       <c r="E60" s="13" t="s">
@@ -16164,13 +16286,13 @@
       <c r="A61" t="s">
         <v>1431</v>
       </c>
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="47" t="s">
         <v>1432</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D61" s="50" t="s">
+      <c r="D61" s="47" t="s">
         <v>1433</v>
       </c>
       <c r="E61" s="13" t="s">
@@ -16184,13 +16306,13 @@
       <c r="A62" t="s">
         <v>1434</v>
       </c>
-      <c r="B62" s="50" t="s">
+      <c r="B62" s="47" t="s">
         <v>1435</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D62" s="50" t="s">
+      <c r="D62" s="47" t="s">
         <v>1436</v>
       </c>
       <c r="E62" s="13" t="s">
@@ -16204,13 +16326,13 @@
       <c r="A63" t="s">
         <v>1437</v>
       </c>
-      <c r="B63" s="50" t="s">
+      <c r="B63" s="47" t="s">
         <v>1438</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D63" s="50" t="s">
+      <c r="D63" s="47" t="s">
         <v>1439</v>
       </c>
       <c r="E63" s="13" t="s">
@@ -16224,13 +16346,13 @@
       <c r="A64" t="s">
         <v>1440</v>
       </c>
-      <c r="B64" s="50" t="s">
+      <c r="B64" s="47" t="s">
         <v>1441</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D64" s="50" t="s">
+      <c r="D64" s="47" t="s">
         <v>1442</v>
       </c>
       <c r="E64" s="13" t="s">
@@ -16244,13 +16366,13 @@
       <c r="A65" t="s">
         <v>1443</v>
       </c>
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="47" t="s">
         <v>1444</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D65" s="50" t="s">
+      <c r="D65" s="47" t="s">
         <v>1445</v>
       </c>
       <c r="E65" s="13" t="s">
@@ -16264,13 +16386,13 @@
       <c r="A66" t="s">
         <v>1446</v>
       </c>
-      <c r="B66" s="50" t="s">
+      <c r="B66" s="47" t="s">
         <v>1447</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="50" t="s">
+      <c r="D66" s="47" t="s">
         <v>1448</v>
       </c>
       <c r="E66" s="13" t="s">
@@ -16284,13 +16406,13 @@
       <c r="A67" t="s">
         <v>1449</v>
       </c>
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="47" t="s">
         <v>1450</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D67" s="50" t="s">
+      <c r="D67" s="47" t="s">
         <v>1451</v>
       </c>
       <c r="E67" s="13" t="s">
@@ -16304,13 +16426,13 @@
       <c r="A68" t="s">
         <v>1452</v>
       </c>
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="47" t="s">
         <v>1453</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D68" s="50" t="s">
+      <c r="D68" s="47" t="s">
         <v>1454</v>
       </c>
       <c r="E68" s="13" t="s">
@@ -16324,13 +16446,13 @@
       <c r="A69" t="s">
         <v>1455</v>
       </c>
-      <c r="B69" s="50" t="s">
+      <c r="B69" s="47" t="s">
         <v>1456</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D69" s="50" t="s">
+      <c r="D69" s="47" t="s">
         <v>1457</v>
       </c>
       <c r="E69" s="13" t="s">
@@ -16344,13 +16466,13 @@
       <c r="A70" t="s">
         <v>1458</v>
       </c>
-      <c r="B70" s="50" t="s">
+      <c r="B70" s="47" t="s">
         <v>1459</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D70" s="50" t="s">
+      <c r="D70" s="47" t="s">
         <v>1460</v>
       </c>
       <c r="E70" s="13" t="s">
@@ -16364,13 +16486,13 @@
       <c r="A71" t="s">
         <v>1461</v>
       </c>
-      <c r="B71" s="50" t="s">
+      <c r="B71" s="47" t="s">
         <v>1462</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D71" s="50" t="s">
+      <c r="D71" s="47" t="s">
         <v>1463</v>
       </c>
       <c r="E71" s="13" t="s">
@@ -16384,13 +16506,13 @@
       <c r="A72" t="s">
         <v>1464</v>
       </c>
-      <c r="B72" s="50" t="s">
+      <c r="B72" s="47" t="s">
         <v>1465</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D72" s="50" t="s">
+      <c r="D72" s="47" t="s">
         <v>1466</v>
       </c>
       <c r="E72" s="13" t="s">
@@ -16404,13 +16526,13 @@
       <c r="A73" t="s">
         <v>1467</v>
       </c>
-      <c r="B73" s="50" t="s">
+      <c r="B73" s="47" t="s">
         <v>1468</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D73" s="50" t="s">
+      <c r="D73" s="47" t="s">
         <v>1469</v>
       </c>
       <c r="E73" s="13" t="s">
@@ -16424,13 +16546,13 @@
       <c r="A74" t="s">
         <v>1470</v>
       </c>
-      <c r="B74" s="50" t="s">
+      <c r="B74" s="47" t="s">
         <v>1471</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="50" t="s">
+      <c r="D74" s="47" t="s">
         <v>1472</v>
       </c>
       <c r="E74" s="13" t="s">
@@ -16444,13 +16566,13 @@
       <c r="A75" t="s">
         <v>1473</v>
       </c>
-      <c r="B75" s="50" t="s">
+      <c r="B75" s="47" t="s">
         <v>1474</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D75" s="50" t="s">
+      <c r="D75" s="47" t="s">
         <v>1475</v>
       </c>
       <c r="E75" s="13" t="s">
@@ -16464,13 +16586,13 @@
       <c r="A76" t="s">
         <v>1476</v>
       </c>
-      <c r="B76" s="50" t="s">
+      <c r="B76" s="47" t="s">
         <v>1477</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D76" s="50" t="s">
+      <c r="D76" s="47" t="s">
         <v>1478</v>
       </c>
       <c r="E76" s="13" t="s">
@@ -16484,13 +16606,13 @@
       <c r="A77" t="s">
         <v>1479</v>
       </c>
-      <c r="B77" s="50" t="s">
+      <c r="B77" s="47" t="s">
         <v>1480</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D77" s="50" t="s">
+      <c r="D77" s="47" t="s">
         <v>1481</v>
       </c>
       <c r="E77" s="13" t="s">
@@ -16504,13 +16626,13 @@
       <c r="A78" t="s">
         <v>1482</v>
       </c>
-      <c r="B78" s="50" t="s">
+      <c r="B78" s="47" t="s">
         <v>1483</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D78" s="50" t="s">
+      <c r="D78" s="47" t="s">
         <v>1484</v>
       </c>
       <c r="E78" s="13" t="s">
@@ -16524,13 +16646,13 @@
       <c r="A79" t="s">
         <v>1485</v>
       </c>
-      <c r="B79" s="50" t="s">
+      <c r="B79" s="47" t="s">
         <v>1486</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D79" s="50" t="s">
+      <c r="D79" s="47" t="s">
         <v>1487</v>
       </c>
       <c r="E79" s="13" t="s">
@@ -16544,13 +16666,13 @@
       <c r="A80" t="s">
         <v>1488</v>
       </c>
-      <c r="B80" s="50" t="s">
+      <c r="B80" s="47" t="s">
         <v>1489</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D80" s="50" t="s">
+      <c r="D80" s="47" t="s">
         <v>1490</v>
       </c>
       <c r="E80" s="13" t="s">
@@ -16564,13 +16686,13 @@
       <c r="A81" t="s">
         <v>1491</v>
       </c>
-      <c r="B81" s="50" t="s">
+      <c r="B81" s="47" t="s">
         <v>1492</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D81" s="50" t="s">
+      <c r="D81" s="47" t="s">
         <v>1493</v>
       </c>
       <c r="E81" s="13" t="s">
@@ -16584,13 +16706,13 @@
       <c r="A82" t="s">
         <v>1494</v>
       </c>
-      <c r="B82" s="50" t="s">
+      <c r="B82" s="47" t="s">
         <v>1495</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D82" s="50" t="s">
+      <c r="D82" s="47" t="s">
         <v>1496</v>
       </c>
       <c r="E82" s="13" t="s">
@@ -16604,13 +16726,13 @@
       <c r="A83" t="s">
         <v>1497</v>
       </c>
-      <c r="B83" s="50" t="s">
+      <c r="B83" s="47" t="s">
         <v>1498</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D83" s="50" t="s">
+      <c r="D83" s="47" t="s">
         <v>1499</v>
       </c>
       <c r="E83" s="13" t="s">
@@ -16624,13 +16746,13 @@
       <c r="A84" t="s">
         <v>1500</v>
       </c>
-      <c r="B84" s="50" t="s">
+      <c r="B84" s="47" t="s">
         <v>1501</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D84" s="50" t="s">
+      <c r="D84" s="47" t="s">
         <v>1502</v>
       </c>
       <c r="E84" s="13" t="s">
@@ -16644,13 +16766,13 @@
       <c r="A85" t="s">
         <v>1503</v>
       </c>
-      <c r="B85" s="50" t="s">
+      <c r="B85" s="47" t="s">
         <v>1504</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D85" s="50" t="s">
+      <c r="D85" s="47" t="s">
         <v>1505</v>
       </c>
       <c r="E85" s="13" t="s">
@@ -16664,13 +16786,13 @@
       <c r="A86" t="s">
         <v>1506</v>
       </c>
-      <c r="B86" s="50" t="s">
+      <c r="B86" s="47" t="s">
         <v>1507</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D86" s="50" t="s">
+      <c r="D86" s="47" t="s">
         <v>1508</v>
       </c>
       <c r="E86" s="13" t="s">
@@ -16684,13 +16806,13 @@
       <c r="A87" t="s">
         <v>1509</v>
       </c>
-      <c r="B87" s="50" t="s">
+      <c r="B87" s="47" t="s">
         <v>1510</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D87" s="50" t="s">
+      <c r="D87" s="47" t="s">
         <v>1511</v>
       </c>
       <c r="E87" s="13" t="s">
@@ -16704,13 +16826,13 @@
       <c r="A88" t="s">
         <v>1512</v>
       </c>
-      <c r="B88" s="50" t="s">
+      <c r="B88" s="47" t="s">
         <v>1513</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D88" s="50" t="s">
+      <c r="D88" s="47" t="s">
         <v>1514</v>
       </c>
       <c r="E88" s="13" t="s">
@@ -16724,13 +16846,13 @@
       <c r="A89" t="s">
         <v>1515</v>
       </c>
-      <c r="B89" s="50" t="s">
+      <c r="B89" s="47" t="s">
         <v>1516</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D89" s="50" t="s">
+      <c r="D89" s="47" t="s">
         <v>1517</v>
       </c>
       <c r="E89" s="13" t="s">
@@ -16744,13 +16866,13 @@
       <c r="A90" t="s">
         <v>1518</v>
       </c>
-      <c r="B90" s="50" t="s">
+      <c r="B90" s="47" t="s">
         <v>1519</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D90" s="50" t="s">
+      <c r="D90" s="47" t="s">
         <v>1520</v>
       </c>
       <c r="E90" s="13" t="s">
@@ -16764,13 +16886,13 @@
       <c r="A91" t="s">
         <v>1521</v>
       </c>
-      <c r="B91" s="50" t="s">
+      <c r="B91" s="47" t="s">
         <v>1522</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D91" s="50" t="s">
+      <c r="D91" s="47" t="s">
         <v>1523</v>
       </c>
       <c r="E91" s="13" t="s">
@@ -16784,13 +16906,13 @@
       <c r="A92" t="s">
         <v>1524</v>
       </c>
-      <c r="B92" s="50" t="s">
+      <c r="B92" s="47" t="s">
         <v>1525</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D92" s="50" t="s">
+      <c r="D92" s="47" t="s">
         <v>1526</v>
       </c>
       <c r="E92" s="13" t="s">
@@ -16804,13 +16926,13 @@
       <c r="A93" t="s">
         <v>1527</v>
       </c>
-      <c r="B93" s="50" t="s">
+      <c r="B93" s="47" t="s">
         <v>1528</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D93" s="50" t="s">
+      <c r="D93" s="47" t="s">
         <v>1529</v>
       </c>
       <c r="E93" s="13" t="s">
@@ -16824,13 +16946,13 @@
       <c r="A94" t="s">
         <v>1530</v>
       </c>
-      <c r="B94" s="50" t="s">
+      <c r="B94" s="47" t="s">
         <v>1531</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D94" s="50" t="s">
+      <c r="D94" s="47" t="s">
         <v>1532</v>
       </c>
       <c r="E94" s="13" t="s">
@@ -16844,13 +16966,13 @@
       <c r="A95" t="s">
         <v>1533</v>
       </c>
-      <c r="B95" s="50" t="s">
+      <c r="B95" s="47" t="s">
         <v>1534</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D95" s="50" t="s">
+      <c r="D95" s="47" t="s">
         <v>1535</v>
       </c>
       <c r="E95" s="13" t="s">
@@ -16864,13 +16986,13 @@
       <c r="A96" t="s">
         <v>1536</v>
       </c>
-      <c r="B96" s="50" t="s">
+      <c r="B96" s="47" t="s">
         <v>1537</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D96" s="50" t="s">
+      <c r="D96" s="47" t="s">
         <v>1538</v>
       </c>
       <c r="E96" s="13" t="s">
@@ -16884,13 +17006,13 @@
       <c r="A97" t="s">
         <v>1539</v>
       </c>
-      <c r="B97" s="50" t="s">
+      <c r="B97" s="47" t="s">
         <v>1540</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D97" s="50" t="s">
+      <c r="D97" s="47" t="s">
         <v>1541</v>
       </c>
       <c r="E97" s="13" t="s">
@@ -16904,13 +17026,13 @@
       <c r="A98" t="s">
         <v>1542</v>
       </c>
-      <c r="B98" s="50" t="s">
+      <c r="B98" s="47" t="s">
         <v>1543</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="50" t="s">
+      <c r="D98" s="47" t="s">
         <v>1544</v>
       </c>
       <c r="E98" s="13" t="s">
@@ -16924,13 +17046,13 @@
       <c r="A99" t="s">
         <v>1545</v>
       </c>
-      <c r="B99" s="50" t="s">
+      <c r="B99" s="47" t="s">
         <v>1546</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D99" s="50" t="s">
+      <c r="D99" s="47" t="s">
         <v>1547</v>
       </c>
       <c r="E99" s="13" t="s">
@@ -16944,13 +17066,13 @@
       <c r="A100" t="s">
         <v>1548</v>
       </c>
-      <c r="B100" s="50" t="s">
+      <c r="B100" s="47" t="s">
         <v>1549</v>
       </c>
       <c r="C100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D100" s="50" t="s">
+      <c r="D100" s="47" t="s">
         <v>1550</v>
       </c>
       <c r="E100" s="13" t="s">
@@ -16964,13 +17086,13 @@
       <c r="A101" t="s">
         <v>1551</v>
       </c>
-      <c r="B101" s="50" t="s">
+      <c r="B101" s="47" t="s">
         <v>1552</v>
       </c>
       <c r="C101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D101" s="50" t="s">
+      <c r="D101" s="47" t="s">
         <v>1553</v>
       </c>
       <c r="E101" s="13" t="s">
@@ -16984,13 +17106,13 @@
       <c r="A102" t="s">
         <v>1554</v>
       </c>
-      <c r="B102" s="50" t="s">
+      <c r="B102" s="47" t="s">
         <v>1555</v>
       </c>
       <c r="C102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D102" s="50" t="s">
+      <c r="D102" s="47" t="s">
         <v>1556</v>
       </c>
       <c r="E102" s="13" t="s">
@@ -17004,13 +17126,13 @@
       <c r="A103" t="s">
         <v>1557</v>
       </c>
-      <c r="B103" s="50" t="s">
+      <c r="B103" s="47" t="s">
         <v>1558</v>
       </c>
       <c r="C103" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D103" s="50" t="s">
+      <c r="D103" s="47" t="s">
         <v>1559</v>
       </c>
       <c r="E103" s="13" t="s">
@@ -17024,13 +17146,13 @@
       <c r="A104" t="s">
         <v>1560</v>
       </c>
-      <c r="B104" s="50" t="s">
+      <c r="B104" s="47" t="s">
         <v>1561</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D104" s="50" t="s">
+      <c r="D104" s="47" t="s">
         <v>1562</v>
       </c>
       <c r="E104" s="13" t="s">
@@ -17044,13 +17166,13 @@
       <c r="A105" t="s">
         <v>1563</v>
       </c>
-      <c r="B105" s="50" t="s">
+      <c r="B105" s="47" t="s">
         <v>1564</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D105" s="50" t="s">
+      <c r="D105" s="47" t="s">
         <v>1565</v>
       </c>
       <c r="E105" s="13" t="s">
@@ -17064,13 +17186,13 @@
       <c r="A106" t="s">
         <v>1566</v>
       </c>
-      <c r="B106" s="50" t="s">
+      <c r="B106" s="47" t="s">
         <v>1567</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D106" s="50" t="s">
+      <c r="D106" s="47" t="s">
         <v>1568</v>
       </c>
       <c r="E106" s="13" t="s">
@@ -17089,7 +17211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436F4EB7-AE9E-884E-85DF-B96833175199}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -17100,10 +17222,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="54" t="s">
         <v>1602</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="54" t="s">
         <v>1603</v>
       </c>
       <c r="C1" s="14" t="s">
@@ -17460,144 +17582,144 @@
       <c r="A1" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -18392,13 +18514,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:BF44"/>
+  <dimension ref="A1:BF52"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="3" ySplit="9" topLeftCell="J41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="9" topLeftCell="AV42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19574,59 +19696,20 @@
         <v>440</v>
       </c>
     </row>
-    <row r="10" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>441</v>
-      </c>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
-      <c r="AK10" s="2"/>
-      <c r="AL10" s="2"/>
-      <c r="AM10" s="2"/>
-      <c r="AN10" s="2"/>
-      <c r="AO10" s="2"/>
-      <c r="AP10" s="20"/>
     </row>
     <row r="11" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="F11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>442</v>
       </c>
       <c r="G11" s="2"/>
@@ -19659,9 +19742,7 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
-      <c r="AK11" s="2" t="s">
-        <v>442</v>
-      </c>
+      <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
@@ -19671,9 +19752,12 @@
     <row r="12" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="F12" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -19690,9 +19774,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-      <c r="W12" s="2" t="s">
-        <v>442</v>
-      </c>
+      <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
@@ -19706,24 +19788,21 @@
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
-      <c r="AK12" s="2"/>
+      <c r="AK12" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
-      <c r="AP12" s="2"/>
-      <c r="BB12" s="1" t="s">
-        <v>442</v>
-      </c>
+      <c r="AP12" s="20"/>
     </row>
     <row r="13" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -19740,26 +19819,18 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
+      <c r="W13" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AD13" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AE13" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AF13" s="2" t="s">
-        <v>442</v>
-      </c>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
@@ -19770,21 +19841,18 @@
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
-      <c r="BC13" s="13"/>
+      <c r="BB13" s="1" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="14" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="2" t="s">
-        <v>442</v>
-      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -19793,9 +19861,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="2" t="s">
-        <v>442</v>
-      </c>
+      <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -19808,11 +19874,21 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
+      <c r="AB14" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
@@ -19828,13 +19904,14 @@
     <row r="15" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1" t="s">
         <v>442</v>
       </c>
       <c r="G15" s="2"/>
@@ -19845,7 +19922,9 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -19853,9 +19932,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="2" t="s">
-        <v>442</v>
-      </c>
+      <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
@@ -19875,20 +19952,20 @@
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
-      <c r="BC15" s="13" t="s">
-        <v>442</v>
-      </c>
+      <c r="BC15" s="13"/>
     </row>
     <row r="16" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="E16" s="2"/>
+      <c r="D16" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -19905,7 +19982,9 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
+      <c r="W16" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
@@ -19925,20 +20004,20 @@
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
-      <c r="BC16" s="13"/>
-    </row>
-    <row r="17" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BC16" s="13" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>442</v>
-      </c>
+      <c r="D17" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -19977,10 +20056,10 @@
       <c r="AP17" s="2"/>
       <c r="BC17" s="13"/>
     </row>
-    <row r="18" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="1" t="s">
@@ -20027,16 +20106,18 @@
       <c r="AP18" s="2"/>
       <c r="BC18" s="13"/>
     </row>
-    <row r="19" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -20075,14 +20156,12 @@
       <c r="AP19" s="2"/>
       <c r="BC19" s="13"/>
     </row>
-    <row r="20" spans="1:58" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>453</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="C20" s="4"/>
       <c r="D20" s="1" t="s">
         <v>442</v>
       </c>
@@ -20125,15 +20204,12 @@
       <c r="AP20" s="2"/>
       <c r="BC20" s="13"/>
     </row>
-    <row r="21" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="1" t="s">
-        <v>442</v>
-      </c>
+    <row r="21" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -20142,365 +20218,259 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
       <c r="BC21" s="13"/>
     </row>
-    <row r="22" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:55" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="C22" s="4"/>
+        <v>452</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>453</v>
+      </c>
       <c r="D22" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>442</v>
-      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
       <c r="BC22" s="13"/>
     </row>
-    <row r="23" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
-      <c r="AI23" s="2"/>
-      <c r="AJ23" s="2"/>
-      <c r="AK23" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AL23" s="2"/>
-      <c r="AM23" s="2"/>
-      <c r="AN23" s="2"/>
-      <c r="AO23" s="2"/>
-      <c r="AP23" s="2"/>
-      <c r="BC23" s="13" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="24" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="BC23" s="13"/>
+    </row>
+    <row r="24" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="AK24" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="BB24" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>442</v>
       </c>
       <c r="BC24" s="13"/>
     </row>
-    <row r="25" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="G25" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="BC25" s="13"/>
-    </row>
-    <row r="26" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="BC25" s="13" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="E26" s="2"/>
+      <c r="F26" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="37" t="s">
-        <v>442</v>
-      </c>
+      <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
+      <c r="AK26" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="BB26" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="BC26" s="13"/>
     </row>
-    <row r="27" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5" t="s">
-        <v>461</v>
-      </c>
+    <row r="27" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B27" s="5"/>
       <c r="C27" s="4"/>
-      <c r="E27" s="1" t="s">
-        <v>442</v>
-      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="2"/>
-      <c r="AF27" s="2"/>
-      <c r="AG27" s="2"/>
-      <c r="AH27" s="2"/>
-      <c r="AI27" s="2"/>
-      <c r="AJ27" s="2"/>
-      <c r="AK27" s="2"/>
-      <c r="AL27" s="2"/>
-      <c r="AM27" s="2"/>
-      <c r="AN27" s="2"/>
-      <c r="AO27" s="2"/>
       <c r="BC27" s="13"/>
     </row>
-    <row r="28" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C28" s="4"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="G28" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="V28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="W28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="X28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="Y28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="Z28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AA28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AB28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AC28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AD28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AE28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AF28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AG28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AH28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AI28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AJ28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AK28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AL28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AM28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AN28" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AO28" s="2" t="s">
-        <v>442</v>
-      </c>
       <c r="BC28" s="13"/>
     </row>
-    <row r="29" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="K29" s="37" t="s">
+        <v>442</v>
+      </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="2"/>
-      <c r="AG29" s="2"/>
-      <c r="AH29" s="2"/>
-      <c r="AI29" s="2"/>
-      <c r="AJ29" s="2"/>
-      <c r="AK29" s="2"/>
-      <c r="AL29" s="2"/>
-      <c r="AM29" s="2"/>
-      <c r="AN29" s="2"/>
-      <c r="AO29" s="2"/>
-      <c r="AP29" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AQ29" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AR29" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AS29" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AT29" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AU29" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AV29" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AW29" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AX29" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AY29" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AZ29" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="BA29" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="BB29" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="BC29" s="1"/>
-      <c r="BD29" s="1"/>
-      <c r="BE29" s="1"/>
-      <c r="BF29" s="1"/>
-    </row>
-    <row r="30" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
+      <c r="BC29" s="13"/>
+    </row>
+    <row r="30" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -20510,68 +20480,39 @@
       <c r="T30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
-      <c r="X30" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="Y30" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="Z30" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AA30" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AB30" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AC30" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AD30" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AE30" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AF30" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AG30" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AH30" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AI30" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AJ30" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AK30" s="2" t="s">
-        <v>442</v>
-      </c>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
       <c r="AL30" s="2"/>
       <c r="AM30" s="2"/>
       <c r="AN30" s="2"/>
       <c r="AO30" s="2"/>
       <c r="BC30" s="13"/>
     </row>
-    <row r="31" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+    <row r="31" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="4"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="2" t="s">
-        <v>442</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
@@ -20594,97 +20535,62 @@
       <c r="AJ31" s="2"/>
       <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
-      <c r="AM31" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AN31" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AO31" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AP31" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AQ31" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AR31" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AS31" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AT31" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AU31" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AV31" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AW31" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AX31" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AY31" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AZ31" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="BA31" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="BB31" s="1" t="s">
-        <v>442</v>
-      </c>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
       <c r="BC31" s="13"/>
     </row>
-    <row r="32" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="V32" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
+      <c r="W32" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Z32" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AA32" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="AB32" s="2" t="s">
         <v>442</v>
       </c>
@@ -20700,136 +20606,130 @@
       <c r="AF32" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="AG32" s="2"/>
-      <c r="AH32" s="2"/>
-      <c r="AI32" s="2"/>
-      <c r="AJ32" s="2"/>
+      <c r="AG32" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH32" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AI32" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AJ32" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="AK32" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="AL32" s="2"/>
-      <c r="AM32" s="2"/>
+      <c r="AL32" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AM32" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="AN32" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AO32" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="AP32" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AR32" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AS32" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AT32" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AU32" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AV32" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AW32" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="BB32" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="BC32" s="13" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="33" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BC32" s="13"/>
+    </row>
+    <row r="33" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="2" t="s">
-        <v>442</v>
-      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="1" t="s">
-        <v>442</v>
-      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="V33" s="2" t="s">
-        <v>442</v>
-      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
-      <c r="AB33" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AC33" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AD33" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AE33" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AF33" s="2" t="s">
-        <v>442</v>
-      </c>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="2"/>
-      <c r="AK33" s="2" t="s">
-        <v>442</v>
-      </c>
+      <c r="AK33" s="2"/>
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
-      <c r="AN33" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AO33" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AP33" s="1" t="s">
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AQ33" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AR33" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AS33" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AT33" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AU33" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AV33" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AW33" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AX33" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AY33" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AZ33" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="BA33" s="1" t="s">
         <v>442</v>
       </c>
       <c r="BB33" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="BC33" s="13" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="34" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
+      <c r="BC33" s="1"/>
+      <c r="BD33" s="1"/>
+      <c r="BE33" s="1"/>
+      <c r="BF33" s="1"/>
+    </row>
+    <row r="34" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
       <c r="B34" s="5" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="2" t="s">
-        <v>442</v>
-      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -20837,22 +20737,47 @@
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-      <c r="AH34" s="2"/>
-      <c r="AI34" s="2"/>
-      <c r="AJ34" s="2"/>
+      <c r="X34" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y34" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Z34" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AA34" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AB34" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC34" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD34" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE34" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AF34" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AG34" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH34" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AI34" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AJ34" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="AK34" s="2" t="s">
         <v>442</v>
       </c>
@@ -20860,27 +20785,16 @@
       <c r="AM34" s="2"/>
       <c r="AN34" s="2"/>
       <c r="AO34" s="2"/>
-      <c r="AP34" s="2"/>
-      <c r="BC34" s="13" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="35" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5" t="s">
-        <v>470</v>
-      </c>
+      <c r="BC34" s="13"/>
+    </row>
+    <row r="35" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B35" s="5"/>
       <c r="C35" s="4"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="G35" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -20888,7 +20802,6 @@
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
@@ -20911,27 +20824,16 @@
       <c r="AO35" s="2"/>
       <c r="BC35" s="13"/>
     </row>
-    <row r="36" spans="1:55" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>442</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="G36" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2" t="s">
         <v>442</v>
@@ -20942,9 +20844,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="V36" s="2"/>
-      <c r="W36" s="2" t="s">
-        <v>442</v>
-      </c>
+      <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
@@ -20958,727 +20858,1142 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="2"/>
-      <c r="AK36" s="2" t="s">
-        <v>442</v>
-      </c>
+      <c r="AK36" s="2"/>
       <c r="AL36" s="2"/>
-      <c r="AM36" s="2"/>
-      <c r="AN36" s="2"/>
-      <c r="AO36" s="2"/>
-      <c r="AP36" s="2"/>
+      <c r="AM36" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AN36" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AO36" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AP36" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AQ36" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AR36" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AS36" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AT36" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AU36" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AV36" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AW36" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AX36" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AY36" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AZ36" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="BA36" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="BB36" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="BC36" s="13" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="37" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37"/>
-      <c r="B37" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AK37" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="BA37" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="BC37" s="13" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="38" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="40"/>
-      <c r="B38" s="41" t="s">
-        <v>474</v>
-      </c>
-      <c r="C38" s="40"/>
-      <c r="D38" s="42" t="s">
-        <v>442</v>
-      </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="G38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="L38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="M38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="N38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="O38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="P38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="R38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="S38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="T38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="U38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="V38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="W38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="X38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="Y38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="Z38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="AA38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="AB38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="AC38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="AD38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="AE38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="AF38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="AG38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="AH38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="AI38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="AJ38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="AK38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="AL38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="AM38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="AN38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="AO38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="AP38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="AQ38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="AR38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="AS38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="AT38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="AU38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="AV38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="AW38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="AX38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="AY38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="AZ38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="BA38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="BB38" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="BC38" s="40" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="39" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39"/>
+      <c r="BC36" s="13"/>
+    </row>
+    <row r="37" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="2"/>
+      <c r="AN37" s="2"/>
+      <c r="AO37" s="2"/>
+      <c r="BC37" s="13"/>
+    </row>
+    <row r="38" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="V38" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC38" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD38" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE38" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AF38" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AL38" s="2"/>
+      <c r="AM38" s="2"/>
+      <c r="AN38" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AO38" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AP38" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AR38" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AS38" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AT38" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AU38" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AV38" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AW38" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="BB38" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="BC38" s="13" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="39" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="V39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AK39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AL39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AM39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AN39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AO39" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="V39" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC39" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD39" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE39" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AF39" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="2"/>
+      <c r="AN39" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AO39" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AP39" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="AQ39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AR39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AS39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AT39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AU39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AV39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AW39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AX39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AY39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AZ39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="BA39" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="40" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40"/>
+      <c r="BB39" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="BC39" s="13" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="40" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="T40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="U40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="V40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="W40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="X40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="Y40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="Z40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AA40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AB40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AC40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AD40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AE40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AF40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AG40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AH40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AI40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AJ40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AK40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AL40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AM40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AN40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AO40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AP40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AQ40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AR40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AS40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AT40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AU40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AV40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AW40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AX40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AY40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AZ40" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="BA40" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="41" spans="1:55" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41"/>
+        <v>469</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AL40" s="2"/>
+      <c r="AM40" s="2"/>
+      <c r="AN40" s="2"/>
+      <c r="AO40" s="2"/>
+      <c r="AP40" s="2"/>
+      <c r="BC40" s="13" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="41" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="T41" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="U41" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="V41" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="42" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42"/>
+        <v>470</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="G41" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="2"/>
+      <c r="AL41" s="2"/>
+      <c r="AM41" s="2"/>
+      <c r="AN41" s="2"/>
+      <c r="AO41" s="2"/>
+      <c r="BC41" s="13"/>
+    </row>
+    <row r="42" spans="1:58" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="T42" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="U42" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="V42" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="43" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AL42" s="2"/>
+      <c r="AM42" s="2"/>
+      <c r="AN42" s="2"/>
+      <c r="AO42" s="2"/>
+      <c r="AP42" s="2"/>
+      <c r="BB42" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="BC42" s="13" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="43" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="N43" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>442</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="P43" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="T43" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="V43" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="44" spans="1:55" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W43" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AK43" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="BA43" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="BC43" s="13" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="44" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="Z44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AB44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AF44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AG44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AI44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AJ44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AK44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AL44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AM44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AN44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AO44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AP44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AQ44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AR44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AS44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AT44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AU44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AV44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AW44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AX44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AY44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AZ44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="BA44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="BB44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="BC44" s="13" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="45" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="D45" s="2"/>
+      <c r="BC45" s="13"/>
+    </row>
+    <row r="46" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46"/>
+      <c r="B46" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="G46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AK46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AL46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AM46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AN46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AO46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AP46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AQ46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AR46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AS46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AT46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AU46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AV46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AW46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AX46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AY46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AZ46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="BA46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="BC46" s="13"/>
+    </row>
+    <row r="47" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47"/>
+      <c r="B47" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="Z47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AA47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AB47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AF47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AG47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AI47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AJ47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AK47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AL47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AM47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AN47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AO47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AP47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AQ47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AR47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AS47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AT47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AU47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AV47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AW47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AX47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AY47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AZ47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="BA47" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="48" spans="1:58" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48"/>
+      <c r="B48" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="49" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49"/>
+      <c r="B49" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="50" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50"/>
+      <c r="B50" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="51" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="1:55" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52"/>
+      <c r="B52" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="T44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="U44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="W44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="X44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="Y44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="Z44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AA44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AB44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AC44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AD44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AE44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AF44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AG44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AH44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AI44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AJ44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AK44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AL44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AM44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AN44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AO44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AP44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AQ44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AR44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AS44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AT44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AU44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AV44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AW44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AX44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AY44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AZ44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="BA44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="BB44" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="BC44" s="1" t="s">
+      <c r="D52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="W52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="X52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="Z52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AA52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AB52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AF52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AG52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AI52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AJ52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AK52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AL52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AM52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AN52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AO52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AP52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AQ52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AR52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AS52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AT52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AU52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AV52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AW52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AX52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AY52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AZ52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="BA52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="BB52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="BC52" s="1" t="s">
         <v>442</v>
       </c>
     </row>

--- a/source_data/protocols/NCT04573309/NCT04573309.xlsx
+++ b/source_data/protocols/NCT04573309/NCT04573309.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/protocols/NCT04573309/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8301EE6E-B15C-1C4C-B089-AF1F734E6D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0963B5-B5A1-AC4B-BF9B-801183C69D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36400" yWindow="500" windowWidth="36400" windowHeight="19900" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36400" yWindow="500" windowWidth="36400" windowHeight="19900" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -42,14 +42,15 @@
     <sheet name="documentContent" sheetId="28" r:id="rId27"/>
     <sheet name="document" sheetId="29" r:id="rId28"/>
     <sheet name="abbreviations" sheetId="32" r:id="rId29"/>
-    <sheet name="configuration" sheetId="27" r:id="rId30"/>
+    <sheet name="notes" sheetId="33" r:id="rId30"/>
+    <sheet name="configuration" sheetId="27" r:id="rId31"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="1622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3536" uniqueCount="1627">
   <si>
     <t>name</t>
   </si>
@@ -7056,6 +7057,21 @@
   </si>
   <si>
     <t>Other grouping activity</t>
+  </si>
+  <si>
+    <t>ANN_01</t>
+  </si>
+  <si>
+    <t>ANN_02</t>
+  </si>
+  <si>
+    <t>ANN_03</t>
+  </si>
+  <si>
+    <t>ANN_04</t>
+  </si>
+  <si>
+    <t>This is a parent activity</t>
   </si>
 </sst>
 </file>
@@ -11439,10 +11455,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11452,7 +11468,7 @@
     <col min="3" max="3" width="91.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -11462,8 +11478,11 @@
       <c r="C1" s="14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="14" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>441</v>
       </c>
@@ -11471,7 +11490,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>443</v>
       </c>
@@ -11479,7 +11498,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>444</v>
       </c>
@@ -11487,7 +11506,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>445</v>
       </c>
@@ -11495,7 +11514,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>446</v>
       </c>
@@ -11503,7 +11522,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>447</v>
       </c>
@@ -11511,7 +11530,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>448</v>
       </c>
@@ -11519,7 +11538,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>449</v>
       </c>
@@ -11527,7 +11546,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>450</v>
       </c>
@@ -11535,7 +11554,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>451</v>
       </c>
@@ -11543,7 +11562,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>452</v>
       </c>
@@ -11551,7 +11570,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>454</v>
       </c>
@@ -11559,7 +11578,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>455</v>
       </c>
@@ -11567,7 +11586,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>456</v>
       </c>
@@ -11575,7 +11594,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>457</v>
       </c>
@@ -11711,7 +11730,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>477</v>
       </c>
@@ -11719,7 +11738,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>478</v>
       </c>
@@ -11727,7 +11746,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>479</v>
       </c>
@@ -11735,7 +11754,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>480</v>
       </c>
@@ -11743,7 +11762,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>529</v>
       </c>
@@ -11751,7 +11770,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>741</v>
       </c>
@@ -11759,7 +11778,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>1606</v>
       </c>
@@ -11769,8 +11788,11 @@
       <c r="C39" s="4" t="s">
         <v>1606</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>1607</v>
       </c>
@@ -11781,7 +11803,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>1608</v>
       </c>
@@ -11792,7 +11814,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>1609</v>
       </c>
@@ -11803,7 +11825,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>1610</v>
       </c>
@@ -11814,7 +11836,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>1611</v>
       </c>
@@ -11825,7 +11847,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1612</v>
       </c>
@@ -11836,7 +11858,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1613</v>
       </c>
@@ -17514,6 +17536,58 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82933AAF-F060-9544-8A9A-79B341EF929B}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="72.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
